--- a/zzz_lib/code and data/data/Excel/need_provision_data.xlsx
+++ b/zzz_lib/code and data/data/Excel/need_provision_data.xlsx
@@ -8,42 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{49620CAC-47E9-49B7-8DE1-6006B40C155F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21C4461E-1427-4D61-B39A-19F1E1E54402}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE599A8F-59D6-49CC-83CA-10D0400D33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2370" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6159AE26-BAA3-4798-8FA7-31DAAB95F180}"/>
+    <workbookView xWindow="-26505" yWindow="45" windowWidth="21600" windowHeight="11295" xr2:uid="{6D1BAE02-DBAD-417A-B427-DA4AE4DF96C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Information" sheetId="3" r:id="rId1"/>
-    <sheet name="need_provision_data" sheetId="1" r:id="rId2"/>
+    <sheet name="need_provision_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="8">
   <si>
     <t>age</t>
   </si>
@@ -68,42 +45,12 @@
   <si>
     <t>health</t>
   </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>Estimating Care Needs and Provision Across the US Population: 2007-2023</t>
-  </si>
-  <si>
-    <r>
-      <t> Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Care Board</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, University of Kansas, using microdata from the American Time Use Survey (ATUS) and Annual Social and Economic Supplement (ASEC) from the Current Population Survey (CPS)  curated by ipums.org. For more details, visit thecareboard.ku.edu.</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,66 +183,6 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -480,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -595,45 +482,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -676,56 +526,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -763,7 +568,6 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42" xr:uid="{EF6AC539-2760-453F-AA9B-548C7458964A}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -781,70 +585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1163,416 +903,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ED4F49-09F4-42CD-91A9-1260D621E529}">
-  <dimension ref="A1:C74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C75F89-8DB1-4D15-ABE4-17EB02B18045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA4993A-4D39-40BE-9127-687E8D1CC91E}">
   <dimension ref="A1:E4387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2502,7 +1836,7 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>9.1567754575604798</v>
+        <v>9.1567754575604692</v>
       </c>
       <c r="D55">
         <v>17.671234402136601</v>
@@ -2553,7 +1887,7 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>21.856563070429999</v>
+        <v>21.8565630704299</v>
       </c>
       <c r="D58">
         <v>37.503116141091802</v>
@@ -2893,7 +2227,7 @@
         <v>6</v>
       </c>
       <c r="C78">
-        <v>131.05752673309399</v>
+        <v>131.05752673309499</v>
       </c>
       <c r="D78">
         <v>137.809605409597</v>
@@ -3063,7 +2397,7 @@
         <v>7</v>
       </c>
       <c r="C88">
-        <v>80.778662958129303</v>
+        <v>80.778662958129402</v>
       </c>
       <c r="D88">
         <v>121.60837397842801</v>
@@ -3420,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <v>82.324449294203603</v>
+        <v>82.324449294203703</v>
       </c>
       <c r="D109">
         <v>116.209093588066</v>
@@ -3760,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="C129">
-        <v>167.92504180432201</v>
+        <v>167.925041804323</v>
       </c>
       <c r="D129">
         <v>168.40774726928399</v>
@@ -4542,7 +3876,7 @@
         <v>7</v>
       </c>
       <c r="C175">
-        <v>99.790884531580602</v>
+        <v>99.790884531580502</v>
       </c>
       <c r="D175">
         <v>103.56846337068799</v>
@@ -4593,7 +3927,7 @@
         <v>7</v>
       </c>
       <c r="C178">
-        <v>97.933430078883902</v>
+        <v>97.933430078883802</v>
       </c>
       <c r="D178">
         <v>103.121410029657</v>
@@ -4695,7 +4029,7 @@
         <v>7</v>
       </c>
       <c r="C184">
-        <v>95.5929316742357</v>
+        <v>95.592931674235601</v>
       </c>
       <c r="D184">
         <v>100.669297487479</v>
@@ -5460,7 +4794,7 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <v>89.8872454515801</v>
+        <v>89.88724545158</v>
       </c>
       <c r="D229">
         <v>68.345433699699896</v>
@@ -5613,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="C238">
-        <v>82.343503730941293</v>
+        <v>82.343503730941194</v>
       </c>
       <c r="D238">
         <v>68.954447570927002</v>
@@ -59248,7 +58582,7 @@
         <v>6</v>
       </c>
       <c r="C3393">
-        <v>0.59370512007059895</v>
+        <v>0</v>
       </c>
       <c r="D3393">
         <v>0</v>
@@ -59299,7 +58633,7 @@
         <v>6</v>
       </c>
       <c r="C3396">
-        <v>2.4834133375978902</v>
+        <v>0</v>
       </c>
       <c r="D3396">
         <v>0</v>
@@ -59350,7 +58684,7 @@
         <v>6</v>
       </c>
       <c r="C3399">
-        <v>6.5181993908564797</v>
+        <v>4.4580055852207296</v>
       </c>
       <c r="D3399">
         <v>0</v>
@@ -59401,7 +58735,7 @@
         <v>6</v>
       </c>
       <c r="C3402">
-        <v>11.6302494894307</v>
+        <v>15.8839101900938</v>
       </c>
       <c r="D3402">
         <v>0</v>
@@ -59452,7 +58786,7 @@
         <v>6</v>
       </c>
       <c r="C3405">
-        <v>14.6105861901023</v>
+        <v>30.2615240807588</v>
       </c>
       <c r="D3405">
         <v>6.3532920951018896</v>
@@ -59503,7 +58837,7 @@
         <v>6</v>
       </c>
       <c r="C3408">
-        <v>14.571666777772901</v>
+        <v>52.124533591870801</v>
       </c>
       <c r="D3408">
         <v>23.8762952117495</v>
@@ -59520,7 +58854,7 @@
         <v>7</v>
       </c>
       <c r="C3409">
-        <v>1.3916836039526901</v>
+        <v>0.65268436588644496</v>
       </c>
       <c r="D3409">
         <v>9.1662777587979498</v>
@@ -59554,7 +58888,7 @@
         <v>6</v>
       </c>
       <c r="C3411">
-        <v>13.2771044095853</v>
+        <v>79.326926308514402</v>
       </c>
       <c r="D3411">
         <v>47.203991166764403</v>
@@ -59571,7 +58905,7 @@
         <v>7</v>
       </c>
       <c r="C3412">
-        <v>8.3912291697957393</v>
+        <v>6.4436403481413898</v>
       </c>
       <c r="D3412">
         <v>23.823885676029601</v>
@@ -59605,7 +58939,7 @@
         <v>6</v>
       </c>
       <c r="C3414">
-        <v>11.494655450683201</v>
+        <v>101.290769891442</v>
       </c>
       <c r="D3414">
         <v>67.830728303032998</v>
@@ -59622,7 +58956,7 @@
         <v>7</v>
       </c>
       <c r="C3415">
-        <v>14.9743721788169</v>
+        <v>12.8612156239685</v>
       </c>
       <c r="D3415">
         <v>44.470375420808402</v>
@@ -59656,7 +58990,7 @@
         <v>6</v>
       </c>
       <c r="C3417">
-        <v>6.8624565572493301</v>
+        <v>118.11795989226999</v>
       </c>
       <c r="D3417">
         <v>89.007103727533504</v>
@@ -59673,7 +59007,7 @@
         <v>7</v>
       </c>
       <c r="C3418">
-        <v>24.710472848330099</v>
+        <v>21.667864745361399</v>
       </c>
       <c r="D3418">
         <v>78.943565351792898</v>
@@ -59707,7 +59041,7 @@
         <v>6</v>
       </c>
       <c r="C3420">
-        <v>1.9136885935044301</v>
+        <v>131.764088911784</v>
       </c>
       <c r="D3420">
         <v>108.694802395672</v>
@@ -59724,7 +59058,7 @@
         <v>7</v>
       </c>
       <c r="C3421">
-        <v>33.170739440187504</v>
+        <v>30.828832018129301</v>
       </c>
       <c r="D3421">
         <v>116.288668608793</v>
@@ -59758,7 +59092,7 @@
         <v>6</v>
       </c>
       <c r="C3423">
-        <v>0.20558937996637899</v>
+        <v>136.54640083794499</v>
       </c>
       <c r="D3423">
         <v>118.75206003331699</v>
@@ -59775,7 +59109,7 @@
         <v>7</v>
       </c>
       <c r="C3424">
-        <v>34.622106556943102</v>
+        <v>38.479248362969201</v>
       </c>
       <c r="D3424">
         <v>152.74168704422399</v>
@@ -59809,7 +59143,7 @@
         <v>6</v>
       </c>
       <c r="C3426">
-        <v>0</v>
+        <v>135.74026781571899</v>
       </c>
       <c r="D3426">
         <v>124.209954884486</v>
@@ -59826,7 +59160,7 @@
         <v>7</v>
       </c>
       <c r="C3427">
-        <v>33.610314896730699</v>
+        <v>46.336982395854697</v>
       </c>
       <c r="D3427">
         <v>192.75401911557901</v>
@@ -59860,7 +59194,7 @@
         <v>6</v>
       </c>
       <c r="C3429">
-        <v>0</v>
+        <v>134.98549546513101</v>
       </c>
       <c r="D3429">
         <v>128.388730841925</v>
@@ -59877,7 +59211,7 @@
         <v>7</v>
       </c>
       <c r="C3430">
-        <v>30.750585518535502</v>
+        <v>52.787177335148002</v>
       </c>
       <c r="D3430">
         <v>222.42485746212</v>
@@ -59911,7 +59245,7 @@
         <v>6</v>
       </c>
       <c r="C3432">
-        <v>0</v>
+        <v>134.47265829692299</v>
       </c>
       <c r="D3432">
         <v>130.97076456157899</v>
@@ -59928,7 +59262,7 @@
         <v>7</v>
       </c>
       <c r="C3433">
-        <v>22.9197512490016</v>
+        <v>56.6900477733302</v>
       </c>
       <c r="D3433">
         <v>238.648517223113</v>
@@ -59962,7 +59296,7 @@
         <v>6</v>
       </c>
       <c r="C3435">
-        <v>0</v>
+        <v>132.288790916669</v>
       </c>
       <c r="D3435">
         <v>131.469272956494</v>
@@ -59979,7 +59313,7 @@
         <v>7</v>
       </c>
       <c r="C3436">
-        <v>11.2037324753297</v>
+        <v>58.967196401970398</v>
       </c>
       <c r="D3436">
         <v>247.79489711117299</v>
@@ -60013,7 +59347,7 @@
         <v>6</v>
       </c>
       <c r="C3438">
-        <v>0</v>
+        <v>130.91838908664499</v>
       </c>
       <c r="D3438">
         <v>132.95076030507599</v>
@@ -60030,7 +59364,7 @@
         <v>7</v>
       </c>
       <c r="C3439">
-        <v>2.53138159734055</v>
+        <v>61.095848588063397</v>
       </c>
       <c r="D3439">
         <v>250.176565125586</v>
@@ -60064,7 +59398,7 @@
         <v>6</v>
       </c>
       <c r="C3441">
-        <v>0</v>
+        <v>131.13067284736101</v>
       </c>
       <c r="D3441">
         <v>135.93953892920899</v>
@@ -60081,7 +59415,7 @@
         <v>7</v>
       </c>
       <c r="C3442">
-        <v>0</v>
+        <v>63.520354835242699</v>
       </c>
       <c r="D3442">
         <v>239.69935935140299</v>
@@ -60115,7 +59449,7 @@
         <v>6</v>
       </c>
       <c r="C3444">
-        <v>0</v>
+        <v>131.66378808879699</v>
       </c>
       <c r="D3444">
         <v>138.95222037426899</v>
@@ -60132,7 +59466,7 @@
         <v>7</v>
       </c>
       <c r="C3445">
-        <v>0</v>
+        <v>65.635023626572107</v>
       </c>
       <c r="D3445">
         <v>219.406580200495</v>
@@ -60166,7 +59500,7 @@
         <v>6</v>
       </c>
       <c r="C3447">
-        <v>0</v>
+        <v>131.95561934742801</v>
       </c>
       <c r="D3447">
         <v>142.04375775389701</v>
@@ -60183,7 +59517,7 @@
         <v>7</v>
       </c>
       <c r="C3448">
-        <v>0</v>
+        <v>67.342017298192303</v>
       </c>
       <c r="D3448">
         <v>203.316989162374</v>
@@ -60217,7 +59551,7 @@
         <v>6</v>
       </c>
       <c r="C3450">
-        <v>0</v>
+        <v>131.50584280425201</v>
       </c>
       <c r="D3450">
         <v>145.57794701915199</v>
@@ -60234,7 +59568,7 @@
         <v>7</v>
       </c>
       <c r="C3451">
-        <v>0</v>
+        <v>67.658454077625393</v>
       </c>
       <c r="D3451">
         <v>192.41506805161299</v>
@@ -60268,7 +59602,7 @@
         <v>6</v>
       </c>
       <c r="C3453">
-        <v>0</v>
+        <v>130.96814940804899</v>
       </c>
       <c r="D3453">
         <v>149.029851108407</v>
@@ -60285,7 +59619,7 @@
         <v>7</v>
       </c>
       <c r="C3454">
-        <v>0</v>
+        <v>67.845513316964102</v>
       </c>
       <c r="D3454">
         <v>183.09083147193601</v>
@@ -60319,7 +59653,7 @@
         <v>6</v>
       </c>
       <c r="C3456">
-        <v>0</v>
+        <v>130.58626381760499</v>
       </c>
       <c r="D3456">
         <v>152.15378735653101</v>
@@ -60336,7 +59670,7 @@
         <v>7</v>
       </c>
       <c r="C3457">
-        <v>0</v>
+        <v>69.117769780913093</v>
       </c>
       <c r="D3457">
         <v>179.15328971366</v>
@@ -60370,7 +59704,7 @@
         <v>6</v>
       </c>
       <c r="C3459">
-        <v>0</v>
+        <v>130.18724560612799</v>
       </c>
       <c r="D3459">
         <v>155.227026804422</v>
@@ -60387,7 +59721,7 @@
         <v>7</v>
       </c>
       <c r="C3460">
-        <v>0</v>
+        <v>70.564194518173196</v>
       </c>
       <c r="D3460">
         <v>178.13866689602801</v>
@@ -60421,7 +59755,7 @@
         <v>6</v>
       </c>
       <c r="C3462">
-        <v>0</v>
+        <v>130.31500383340901</v>
       </c>
       <c r="D3462">
         <v>157.75585360573399</v>
@@ -60438,7 +59772,7 @@
         <v>7</v>
       </c>
       <c r="C3463">
-        <v>0</v>
+        <v>72.264635977734599</v>
       </c>
       <c r="D3463">
         <v>177.764844435665</v>
@@ -60472,7 +59806,7 @@
         <v>6</v>
       </c>
       <c r="C3465">
-        <v>0</v>
+        <v>131.28901291051901</v>
       </c>
       <c r="D3465">
         <v>159.37029012541601</v>
@@ -60489,7 +59823,7 @@
         <v>7</v>
       </c>
       <c r="C3466">
-        <v>0</v>
+        <v>74.434491246664393</v>
       </c>
       <c r="D3466">
         <v>181.98787735559699</v>
@@ -60523,7 +59857,7 @@
         <v>6</v>
       </c>
       <c r="C3468">
-        <v>0</v>
+        <v>132.515377814159</v>
       </c>
       <c r="D3468">
         <v>160.63345548738101</v>
@@ -60540,7 +59874,7 @@
         <v>7</v>
       </c>
       <c r="C3469">
-        <v>0</v>
+        <v>76.844915447769907</v>
       </c>
       <c r="D3469">
         <v>186.11206900181401</v>
@@ -60574,7 +59908,7 @@
         <v>6</v>
       </c>
       <c r="C3471">
-        <v>0</v>
+        <v>133.718001048427</v>
       </c>
       <c r="D3471">
         <v>161.72856079122599</v>
@@ -60591,7 +59925,7 @@
         <v>7</v>
       </c>
       <c r="C3472">
-        <v>0</v>
+        <v>79.331375027185601</v>
       </c>
       <c r="D3472">
         <v>182.801509443019</v>
@@ -60625,7 +59959,7 @@
         <v>6</v>
       </c>
       <c r="C3474">
-        <v>0</v>
+        <v>135.11829147867499</v>
       </c>
       <c r="D3474">
         <v>162.45572320906501</v>
@@ -60642,7 +59976,7 @@
         <v>7</v>
       </c>
       <c r="C3475">
-        <v>0</v>
+        <v>82.0004068337078</v>
       </c>
       <c r="D3475">
         <v>176.98427004193701</v>
@@ -60676,7 +60010,7 @@
         <v>6</v>
       </c>
       <c r="C3477">
-        <v>0</v>
+        <v>136.636363555028</v>
       </c>
       <c r="D3477">
         <v>163.14623114177101</v>
@@ -60693,7 +60027,7 @@
         <v>7</v>
       </c>
       <c r="C3478">
-        <v>0</v>
+        <v>84.672101973929699</v>
       </c>
       <c r="D3478">
         <v>171.79657664066701</v>
@@ -60727,7 +60061,7 @@
         <v>6</v>
       </c>
       <c r="C3480">
-        <v>0</v>
+        <v>137.95303353752999</v>
       </c>
       <c r="D3480">
         <v>163.83916325134399</v>
@@ -60744,7 +60078,7 @@
         <v>7</v>
       </c>
       <c r="C3481">
-        <v>0</v>
+        <v>87.517198471445994</v>
       </c>
       <c r="D3481">
         <v>165.28921351506401</v>
@@ -60778,7 +60112,7 @@
         <v>6</v>
       </c>
       <c r="C3483">
-        <v>0</v>
+        <v>139.57480096572999</v>
       </c>
       <c r="D3483">
         <v>164.48261338773099</v>
@@ -60795,7 +60129,7 @@
         <v>7</v>
       </c>
       <c r="C3484">
-        <v>0</v>
+        <v>90.320024758527197</v>
       </c>
       <c r="D3484">
         <v>159.59627779543399</v>
@@ -60829,7 +60163,7 @@
         <v>6</v>
       </c>
       <c r="C3486">
-        <v>0</v>
+        <v>141.711120671451</v>
       </c>
       <c r="D3486">
         <v>165.00063162313199</v>
@@ -60846,7 +60180,7 @@
         <v>7</v>
       </c>
       <c r="C3487">
-        <v>0</v>
+        <v>93.159205178737196</v>
       </c>
       <c r="D3487">
         <v>159.684273871589</v>
@@ -60880,7 +60214,7 @@
         <v>6</v>
       </c>
       <c r="C3489">
-        <v>0</v>
+        <v>144.10690409165699</v>
       </c>
       <c r="D3489">
         <v>165.37469482814501</v>
@@ -60897,7 +60231,7 @@
         <v>7</v>
       </c>
       <c r="C3490">
-        <v>0</v>
+        <v>96.146361305031903</v>
       </c>
       <c r="D3490">
         <v>162.16003479792499</v>
@@ -60931,7 +60265,7 @@
         <v>6</v>
       </c>
       <c r="C3492">
-        <v>0</v>
+        <v>147.223975503449</v>
       </c>
       <c r="D3492">
         <v>165.88575438315999</v>
@@ -60948,7 +60282,7 @@
         <v>7</v>
       </c>
       <c r="C3493">
-        <v>0</v>
+        <v>98.571465701105197</v>
       </c>
       <c r="D3493">
         <v>163.74524869508599</v>
@@ -60982,7 +60316,7 @@
         <v>6</v>
       </c>
       <c r="C3495">
-        <v>0</v>
+        <v>151.80297611178</v>
       </c>
       <c r="D3495">
         <v>166.81858283718501</v>
@@ -60999,7 +60333,7 @@
         <v>7</v>
       </c>
       <c r="C3496">
-        <v>0</v>
+        <v>100.308244469073</v>
       </c>
       <c r="D3496">
         <v>165.443909331426</v>
@@ -61033,7 +60367,7 @@
         <v>6</v>
       </c>
       <c r="C3498">
-        <v>0</v>
+        <v>157.32682857464999</v>
       </c>
       <c r="D3498">
         <v>167.950000106624</v>
@@ -61050,7 +60384,7 @@
         <v>7</v>
       </c>
       <c r="C3499">
-        <v>0</v>
+        <v>101.570370252662</v>
       </c>
       <c r="D3499">
         <v>167.79621119407699</v>
@@ -61084,7 +60418,7 @@
         <v>6</v>
       </c>
       <c r="C3501">
-        <v>0</v>
+        <v>162.37077934873099</v>
       </c>
       <c r="D3501">
         <v>168.79902862296299</v>
@@ -61101,7 +60435,7 @@
         <v>7</v>
       </c>
       <c r="C3502">
-        <v>0</v>
+        <v>102.157735427986</v>
       </c>
       <c r="D3502">
         <v>166.828143481843</v>
@@ -61135,7 +60469,7 @@
         <v>6</v>
       </c>
       <c r="C3504">
-        <v>0</v>
+        <v>166.97552310231501</v>
       </c>
       <c r="D3504">
         <v>169.29719806322399</v>
@@ -61152,7 +60486,7 @@
         <v>7</v>
       </c>
       <c r="C3505">
-        <v>0</v>
+        <v>101.218626024174</v>
       </c>
       <c r="D3505">
         <v>159.342150376213</v>
@@ -61186,7 +60520,7 @@
         <v>6</v>
       </c>
       <c r="C3507">
-        <v>0</v>
+        <v>171.591223392139</v>
       </c>
       <c r="D3507">
         <v>169.63464270219799</v>
@@ -61203,7 +60537,7 @@
         <v>7</v>
       </c>
       <c r="C3508">
-        <v>0</v>
+        <v>99.400583182899297</v>
       </c>
       <c r="D3508">
         <v>148.26590739465999</v>
@@ -61237,7 +60571,7 @@
         <v>6</v>
       </c>
       <c r="C3510">
-        <v>0</v>
+        <v>175.407330007539</v>
       </c>
       <c r="D3510">
         <v>169.718291868026</v>
@@ -61254,7 +60588,7 @@
         <v>7</v>
       </c>
       <c r="C3511">
-        <v>0</v>
+        <v>98.752381949090804</v>
       </c>
       <c r="D3511">
         <v>138.81325073996001</v>
@@ -61288,7 +60622,7 @@
         <v>6</v>
       </c>
       <c r="C3513">
-        <v>0</v>
+        <v>178.07016184424299</v>
       </c>
       <c r="D3513">
         <v>169.173910626701</v>
@@ -61305,7 +60639,7 @@
         <v>7</v>
       </c>
       <c r="C3514">
-        <v>0</v>
+        <v>99.370462889868193</v>
       </c>
       <c r="D3514">
         <v>130.00670911584899</v>
@@ -61339,7 +60673,7 @@
         <v>6</v>
       </c>
       <c r="C3516">
-        <v>0</v>
+        <v>180.160748889844</v>
       </c>
       <c r="D3516">
         <v>168.52111480580501</v>
@@ -61356,7 +60690,7 @@
         <v>7</v>
       </c>
       <c r="C3517">
-        <v>0</v>
+        <v>100.37377294733101</v>
       </c>
       <c r="D3517">
         <v>122.205850195724</v>
@@ -61390,7 +60724,7 @@
         <v>6</v>
       </c>
       <c r="C3519">
-        <v>0</v>
+        <v>181.30645651488399</v>
       </c>
       <c r="D3519">
         <v>167.83629859994201</v>
@@ -61407,7 +60741,7 @@
         <v>7</v>
       </c>
       <c r="C3520">
-        <v>0</v>
+        <v>103.365776507083</v>
       </c>
       <c r="D3520">
         <v>119.335907630625</v>
@@ -61441,7 +60775,7 @@
         <v>6</v>
       </c>
       <c r="C3522">
-        <v>0</v>
+        <v>181.64450557833499</v>
       </c>
       <c r="D3522">
         <v>166.92586676088499</v>
@@ -61458,7 +60792,7 @@
         <v>7</v>
       </c>
       <c r="C3523">
-        <v>0</v>
+        <v>107.696041993056</v>
       </c>
       <c r="D3523">
         <v>118.931781533774</v>
@@ -61492,7 +60826,7 @@
         <v>6</v>
       </c>
       <c r="C3525">
-        <v>0</v>
+        <v>182.53119573997799</v>
       </c>
       <c r="D3525">
         <v>166.63254059491399</v>
@@ -61509,7 +60843,7 @@
         <v>7</v>
       </c>
       <c r="C3526">
-        <v>0</v>
+        <v>110.56626007014501</v>
       </c>
       <c r="D3526">
         <v>118.627366255724</v>
@@ -61543,7 +60877,7 @@
         <v>6</v>
       </c>
       <c r="C3528">
-        <v>0</v>
+        <v>183.906482570695</v>
       </c>
       <c r="D3528">
         <v>166.57454028052601</v>
@@ -61560,7 +60894,7 @@
         <v>7</v>
       </c>
       <c r="C3529">
-        <v>0</v>
+        <v>110.906390611232</v>
       </c>
       <c r="D3529">
         <v>118.623894596451</v>
@@ -61594,7 +60928,7 @@
         <v>6</v>
       </c>
       <c r="C3531">
-        <v>0</v>
+        <v>185.347502280436</v>
       </c>
       <c r="D3531">
         <v>166.68341773551401</v>
@@ -61611,7 +60945,7 @@
         <v>7</v>
       </c>
       <c r="C3532">
-        <v>0</v>
+        <v>110.171870068926</v>
       </c>
       <c r="D3532">
         <v>119.54456285734101</v>
@@ -61645,7 +60979,7 @@
         <v>6</v>
       </c>
       <c r="C3534">
-        <v>0</v>
+        <v>187.66632548758099</v>
       </c>
       <c r="D3534">
         <v>168.27189187510299</v>
@@ -61662,7 +60996,7 @@
         <v>7</v>
       </c>
       <c r="C3535">
-        <v>0</v>
+        <v>109.35260397770701</v>
       </c>
       <c r="D3535">
         <v>119.656210641059</v>
@@ -61696,7 +61030,7 @@
         <v>6</v>
       </c>
       <c r="C3537">
-        <v>0</v>
+        <v>191.460145091323</v>
       </c>
       <c r="D3537">
         <v>172.119794526682</v>
@@ -61713,7 +61047,7 @@
         <v>7</v>
       </c>
       <c r="C3538">
-        <v>0</v>
+        <v>108.05022236181</v>
       </c>
       <c r="D3538">
         <v>118.493957026557</v>
@@ -61747,7 +61081,7 @@
         <v>6</v>
       </c>
       <c r="C3540">
-        <v>0</v>
+        <v>196.163256811671</v>
       </c>
       <c r="D3540">
         <v>177.39940323918501</v>
@@ -61764,7 +61098,7 @@
         <v>7</v>
       </c>
       <c r="C3541">
-        <v>0</v>
+        <v>106.15327532371801</v>
       </c>
       <c r="D3541">
         <v>116.89321054153</v>
@@ -61798,7 +61132,7 @@
         <v>6</v>
       </c>
       <c r="C3543">
-        <v>0</v>
+        <v>200.84338549822601</v>
       </c>
       <c r="D3543">
         <v>183.012105510146</v>
@@ -61815,7 +61149,7 @@
         <v>7</v>
       </c>
       <c r="C3544">
-        <v>0</v>
+        <v>105.08204851529</v>
       </c>
       <c r="D3544">
         <v>115.071244961758</v>
@@ -61849,7 +61183,7 @@
         <v>6</v>
       </c>
       <c r="C3546">
-        <v>0</v>
+        <v>206.28962789953201</v>
       </c>
       <c r="D3546">
         <v>190.67010391698199</v>
@@ -61866,7 +61200,7 @@
         <v>7</v>
       </c>
       <c r="C3547">
-        <v>0</v>
+        <v>106.718727447059</v>
       </c>
       <c r="D3547">
         <v>113.052728918177</v>
@@ -61900,7 +61234,7 @@
         <v>6</v>
       </c>
       <c r="C3549">
-        <v>0</v>
+        <v>211.57848910509799</v>
       </c>
       <c r="D3549">
         <v>198.28357228797</v>
@@ -61917,7 +61251,7 @@
         <v>7</v>
       </c>
       <c r="C3550">
-        <v>0</v>
+        <v>108.19292460982901</v>
       </c>
       <c r="D3550">
         <v>110.74532542059799</v>
@@ -61951,7 +61285,7 @@
         <v>6</v>
       </c>
       <c r="C3552">
-        <v>0</v>
+        <v>215.480373044526</v>
       </c>
       <c r="D3552">
         <v>203.76063790630201</v>
@@ -61968,7 +61302,7 @@
         <v>7</v>
       </c>
       <c r="C3553">
-        <v>0</v>
+        <v>107.42647594464</v>
       </c>
       <c r="D3553">
         <v>107.930617944677</v>
@@ -62002,7 +61336,7 @@
         <v>6</v>
       </c>
       <c r="C3555">
-        <v>0</v>
+        <v>218.90440284324001</v>
       </c>
       <c r="D3555">
         <v>208.82222179267299</v>
@@ -62019,7 +61353,7 @@
         <v>7</v>
       </c>
       <c r="C3556">
-        <v>0</v>
+        <v>106.060184414066</v>
       </c>
       <c r="D3556">
         <v>104.69930750739501</v>
@@ -62053,7 +61387,7 @@
         <v>6</v>
       </c>
       <c r="C3558">
-        <v>0</v>
+        <v>221.55749465603199</v>
       </c>
       <c r="D3558">
         <v>212.38585892716699</v>
@@ -62070,7 +61404,7 @@
         <v>7</v>
       </c>
       <c r="C3559">
-        <v>0</v>
+        <v>103.963926672673</v>
       </c>
       <c r="D3559">
         <v>101.55683576483401</v>
@@ -62104,7 +61438,7 @@
         <v>6</v>
       </c>
       <c r="C3561">
-        <v>0</v>
+        <v>222.76625714047501</v>
       </c>
       <c r="D3561">
         <v>213.24359645140601</v>
@@ -62121,7 +61455,7 @@
         <v>7</v>
       </c>
       <c r="C3562">
-        <v>0</v>
+        <v>99.694016563328006</v>
       </c>
       <c r="D3562">
         <v>98.503827940569494</v>
@@ -62155,7 +61489,7 @@
         <v>6</v>
       </c>
       <c r="C3564">
-        <v>0</v>
+        <v>223.04017210330201</v>
       </c>
       <c r="D3564">
         <v>212.362585167503</v>
@@ -62172,7 +61506,7 @@
         <v>7</v>
       </c>
       <c r="C3565">
-        <v>0</v>
+        <v>94.094251014542493</v>
       </c>
       <c r="D3565">
         <v>95.4266707389571</v>
@@ -62206,7 +61540,7 @@
         <v>6</v>
       </c>
       <c r="C3567">
-        <v>0</v>
+        <v>223.86046542304399</v>
       </c>
       <c r="D3567">
         <v>211.92301554627301</v>
@@ -62223,7 +61557,7 @@
         <v>7</v>
       </c>
       <c r="C3568">
-        <v>0</v>
+        <v>90.465731309345998</v>
       </c>
       <c r="D3568">
         <v>92.659448037249703</v>
@@ -62257,7 +61591,7 @@
         <v>6</v>
       </c>
       <c r="C3570">
-        <v>0</v>
+        <v>225.51675055414799</v>
       </c>
       <c r="D3570">
         <v>212.493401163165</v>
@@ -62274,7 +61608,7 @@
         <v>7</v>
       </c>
       <c r="C3571">
-        <v>0</v>
+        <v>90.055148492168797</v>
       </c>
       <c r="D3571">
         <v>89.897209825616301</v>
@@ -62308,7 +61642,7 @@
         <v>6</v>
       </c>
       <c r="C3573">
-        <v>0</v>
+        <v>227.31500815105801</v>
       </c>
       <c r="D3573">
         <v>213.08044347563899</v>
@@ -62325,7 +61659,7 @@
         <v>7</v>
       </c>
       <c r="C3574">
-        <v>0</v>
+        <v>91.059033622474701</v>
       </c>
       <c r="D3574">
         <v>87.129913304020505</v>
@@ -62359,7 +61693,7 @@
         <v>6</v>
       </c>
       <c r="C3576">
-        <v>0</v>
+        <v>229.26101489229299</v>
       </c>
       <c r="D3576">
         <v>213.52161477752799</v>
@@ -62376,7 +61710,7 @@
         <v>7</v>
       </c>
       <c r="C3577">
-        <v>0</v>
+        <v>92.203248005843804</v>
       </c>
       <c r="D3577">
         <v>85.134003164407602</v>
@@ -62410,7 +61744,7 @@
         <v>6</v>
       </c>
       <c r="C3579">
-        <v>0</v>
+        <v>232.30546047340701</v>
       </c>
       <c r="D3579">
         <v>214.22207972742899</v>
@@ -62427,7 +61761,7 @@
         <v>7</v>
       </c>
       <c r="C3580">
-        <v>0</v>
+        <v>94.784907812025907</v>
       </c>
       <c r="D3580">
         <v>84.238579256277902</v>
@@ -62461,7 +61795,7 @@
         <v>6</v>
       </c>
       <c r="C3582">
-        <v>0</v>
+        <v>235.28249714342999</v>
       </c>
       <c r="D3582">
         <v>214.73501315766401</v>
@@ -62478,7 +61812,7 @@
         <v>7</v>
       </c>
       <c r="C3583">
-        <v>0</v>
+        <v>97.428674006506398</v>
       </c>
       <c r="D3583">
         <v>83.938528625427693</v>
@@ -62512,7 +61846,7 @@
         <v>6</v>
       </c>
       <c r="C3585">
-        <v>0</v>
+        <v>231.57097059034999</v>
       </c>
       <c r="D3585">
         <v>216.531737568133</v>
@@ -62529,7 +61863,7 @@
         <v>7</v>
       </c>
       <c r="C3586">
-        <v>0</v>
+        <v>96.178310002187899</v>
       </c>
       <c r="D3586">
         <v>85.471173708280702</v>
@@ -62563,7 +61897,7 @@
         <v>6</v>
       </c>
       <c r="C3588">
-        <v>0</v>
+        <v>223.80568714241599</v>
       </c>
       <c r="D3588">
         <v>219.22209521308099</v>
@@ -62580,7 +61914,7 @@
         <v>7</v>
       </c>
       <c r="C3589">
-        <v>0</v>
+        <v>93.220616877445906</v>
       </c>
       <c r="D3589">
         <v>88.283556160326299</v>
@@ -62614,7 +61948,7 @@
         <v>6</v>
       </c>
       <c r="C3591">
-        <v>0</v>
+        <v>222.70155826876601</v>
       </c>
       <c r="D3591">
         <v>218.573353278458</v>
@@ -62631,7 +61965,7 @@
         <v>7</v>
       </c>
       <c r="C3592">
-        <v>0</v>
+        <v>92.487329629672203</v>
       </c>
       <c r="D3592">
         <v>89.215380296551899</v>
@@ -62665,7 +61999,7 @@
         <v>6</v>
       </c>
       <c r="C3594">
-        <v>0</v>
+        <v>218.31570399371</v>
       </c>
       <c r="D3594">
         <v>216.94120100343301</v>
@@ -62682,7 +62016,7 @@
         <v>7</v>
       </c>
       <c r="C3595">
-        <v>0</v>
+        <v>90.882487398153003</v>
       </c>
       <c r="D3595">
         <v>89.201069694941197</v>
@@ -62716,7 +62050,7 @@
         <v>6</v>
       </c>
       <c r="C3597">
-        <v>0</v>
+        <v>226.63487081604001</v>
       </c>
       <c r="D3597">
         <v>210.77497161749201</v>
@@ -62733,7 +62067,7 @@
         <v>7</v>
       </c>
       <c r="C3598">
-        <v>0</v>
+        <v>93.194909929682098</v>
       </c>
       <c r="D3598">
         <v>87.141071916731605</v>
@@ -62767,7 +62101,7 @@
         <v>6</v>
       </c>
       <c r="C3600">
-        <v>37.6297386452487</v>
+        <v>263.25179069517498</v>
       </c>
       <c r="D3600">
         <v>195.99578781913701</v>
@@ -62784,7 +62118,7 @@
         <v>7</v>
       </c>
       <c r="C3601">
-        <v>12.543246215082901</v>
+        <v>104.35242188177099</v>
       </c>
       <c r="D3601">
         <v>81.147484435466694</v>
@@ -62818,7 +62152,7 @@
         <v>6</v>
       </c>
       <c r="C3603">
-        <v>108.81669543791701</v>
+        <v>313.43044263684698</v>
       </c>
       <c r="D3603">
         <v>176.49020987513799</v>
@@ -62835,7 +62169,7 @@
         <v>7</v>
       </c>
       <c r="C3604">
-        <v>36.272231812638999</v>
+        <v>119.69289582039301</v>
       </c>
       <c r="D3604">
         <v>73.0456448729107</v>
@@ -62869,7 +62203,7 @@
         <v>6</v>
       </c>
       <c r="C3606">
-        <v>204.61440257383299</v>
+        <v>381.287048391388</v>
       </c>
       <c r="D3606">
         <v>151.114127309314</v>
@@ -62886,7 +62220,7 @@
         <v>7</v>
       </c>
       <c r="C3607">
-        <v>68.204800857944207</v>
+        <v>140.59030951689499</v>
       </c>
       <c r="D3607">
         <v>62.1941537412633</v>
@@ -62920,7 +62254,7 @@
         <v>6</v>
       </c>
       <c r="C3609">
-        <v>329.06845137168699</v>
+        <v>469.872725386676</v>
       </c>
       <c r="D3609">
         <v>119.00897459113401</v>
@@ -62937,7 +62271,7 @@
         <v>7</v>
       </c>
       <c r="C3610">
-        <v>109.68948379056199</v>
+        <v>168.04043979606999</v>
       </c>
       <c r="D3610">
         <v>48.123047636611098</v>
@@ -62971,7 +62305,7 @@
         <v>6</v>
       </c>
       <c r="C3612">
-        <v>479.400898466532</v>
+        <v>577.08313905171099</v>
       </c>
       <c r="D3612">
         <v>80.753524994859703</v>
@@ -62988,7 +62322,7 @@
         <v>7</v>
       </c>
       <c r="C3613">
-        <v>159.80029948884399</v>
+        <v>201.334420753616</v>
       </c>
       <c r="D3613">
         <v>31.1574256276526</v>
@@ -63634,7 +62968,7 @@
         <v>6</v>
       </c>
       <c r="C3651">
-        <v>2.8212066913821201</v>
+        <v>0</v>
       </c>
       <c r="D3651">
         <v>0</v>
@@ -63685,7 +63019,7 @@
         <v>6</v>
       </c>
       <c r="C3654">
-        <v>6.1095505070199696</v>
+        <v>0</v>
       </c>
       <c r="D3654">
         <v>0</v>
@@ -63736,7 +63070,7 @@
         <v>6</v>
       </c>
       <c r="C3657">
-        <v>10.789617483694601</v>
+        <v>9.1665380107884804</v>
       </c>
       <c r="D3657">
         <v>0</v>
@@ -63787,7 +63121,7 @@
         <v>6</v>
       </c>
       <c r="C3660">
-        <v>16.371756351820601</v>
+        <v>22.759272906161101</v>
       </c>
       <c r="D3660">
         <v>0</v>
@@ -63838,7 +63172,7 @@
         <v>6</v>
       </c>
       <c r="C3663">
-        <v>19.3905310462583</v>
+        <v>38.148757507332199</v>
       </c>
       <c r="D3663">
         <v>5.9372603529576899</v>
@@ -63889,7 +63223,7 @@
         <v>6</v>
       </c>
       <c r="C3666">
-        <v>18.397925215289401</v>
+        <v>59.050709280202703</v>
       </c>
       <c r="D3666">
         <v>22.7020124825398</v>
@@ -63906,7 +63240,7 @@
         <v>7</v>
       </c>
       <c r="C3667">
-        <v>0.51010170382393305</v>
+        <v>0</v>
       </c>
       <c r="D3667">
         <v>19.986038042330701</v>
@@ -63940,7 +63274,7 @@
         <v>6</v>
       </c>
       <c r="C3669">
-        <v>15.445428461065299</v>
+        <v>84.2466247775304</v>
       </c>
       <c r="D3669">
         <v>45.054558757817297</v>
@@ -63957,7 +63291,7 @@
         <v>7</v>
       </c>
       <c r="C3670">
-        <v>4.0485438209201599</v>
+        <v>2.2396655383933002</v>
       </c>
       <c r="D3670">
         <v>39.947420228194296</v>
@@ -63991,7 +63325,7 @@
         <v>6</v>
       </c>
       <c r="C3672">
-        <v>12.3168636492512</v>
+        <v>104.248582308469</v>
       </c>
       <c r="D3672">
         <v>65.018414036624506</v>
@@ -64008,7 +63342,7 @@
         <v>7</v>
       </c>
       <c r="C3673">
-        <v>7.5712170714901896</v>
+        <v>5.6050645838503899</v>
       </c>
       <c r="D3673">
         <v>61.2689970904527</v>
@@ -64042,7 +63376,7 @@
         <v>6</v>
       </c>
       <c r="C3675">
-        <v>6.3968926756208502</v>
+        <v>118.509109225464</v>
       </c>
       <c r="D3675">
         <v>85.935598149896705</v>
@@ -64059,7 +63393,7 @@
         <v>7</v>
       </c>
       <c r="C3676">
-        <v>13.2241667596396</v>
+        <v>10.3198561610553</v>
       </c>
       <c r="D3676">
         <v>85.259637957313601</v>
@@ -64093,7 +63427,7 @@
         <v>6</v>
       </c>
       <c r="C3678">
-        <v>0.36631443330487501</v>
+        <v>129.56391539735901</v>
       </c>
       <c r="D3678">
         <v>105.471736533932</v>
@@ -64110,7 +63444,7 @@
         <v>7</v>
       </c>
       <c r="C3679">
-        <v>18.208498917456598</v>
+        <v>15.915165865633201</v>
       </c>
       <c r="D3679">
         <v>111.909927050504</v>
@@ -64144,7 +63478,7 @@
         <v>6</v>
       </c>
       <c r="C3681">
-        <v>0</v>
+        <v>133.06475803304099</v>
       </c>
       <c r="D3681">
         <v>115.523095510232</v>
@@ -64161,7 +63495,7 @@
         <v>7</v>
       </c>
       <c r="C3682">
-        <v>19.295716280546401</v>
+        <v>22.955912552787598</v>
       </c>
       <c r="D3682">
         <v>142.36288313983101</v>
@@ -64195,7 +63529,7 @@
         <v>6</v>
       </c>
       <c r="C3684">
-        <v>0</v>
+        <v>131.35616013800001</v>
       </c>
       <c r="D3684">
         <v>121.15887134498099</v>
@@ -64212,7 +63546,7 @@
         <v>7</v>
       </c>
       <c r="C3685">
-        <v>19.116760527848001</v>
+        <v>31.302080907900901</v>
       </c>
       <c r="D3685">
         <v>175.84726197835101</v>
@@ -64246,7 +63580,7 @@
         <v>6</v>
       </c>
       <c r="C3687">
-        <v>0</v>
+        <v>129.614122490878</v>
       </c>
       <c r="D3687">
         <v>125.647382221084</v>
@@ -64263,7 +63597,7 @@
         <v>7</v>
       </c>
       <c r="C3688">
-        <v>17.779746711159898</v>
+        <v>38.7325701012889</v>
       </c>
       <c r="D3688">
         <v>204.189961344328</v>
@@ -64297,7 +63631,7 @@
         <v>6</v>
       </c>
       <c r="C3690">
-        <v>0</v>
+        <v>127.716258627984</v>
       </c>
       <c r="D3690">
         <v>128.642380341424</v>
@@ -64314,7 +63648,7 @@
         <v>7</v>
       </c>
       <c r="C3691">
-        <v>13.4185647671908</v>
+        <v>44.744700082479298</v>
       </c>
       <c r="D3691">
         <v>230.62000975264701</v>
@@ -64348,7 +63682,7 @@
         <v>6</v>
       </c>
       <c r="C3693">
-        <v>0</v>
+        <v>124.154445796747</v>
       </c>
       <c r="D3693">
         <v>129.66917470303</v>
@@ -64365,7 +63699,7 @@
         <v>7</v>
       </c>
       <c r="C3694">
-        <v>6.7522426381302099</v>
+        <v>50.2467661561993</v>
       </c>
       <c r="D3694">
         <v>256.69753578732798</v>
@@ -64399,7 +63733,7 @@
         <v>6</v>
       </c>
       <c r="C3696">
-        <v>0</v>
+        <v>122.026080342496</v>
       </c>
       <c r="D3696">
         <v>131.80341868002</v>
@@ -64416,7 +63750,7 @@
         <v>7</v>
       </c>
       <c r="C3697">
-        <v>1.7666023839974601</v>
+        <v>55.1341305255633</v>
       </c>
       <c r="D3697">
         <v>271.74608733033898</v>
@@ -64450,7 +63784,7 @@
         <v>6</v>
       </c>
       <c r="C3699">
-        <v>0</v>
+        <v>122.090651708827</v>
       </c>
       <c r="D3699">
         <v>135.83989040485099</v>
@@ -64467,7 +63801,7 @@
         <v>7</v>
       </c>
       <c r="C3700">
-        <v>0</v>
+        <v>59.021604205038997</v>
       </c>
       <c r="D3700">
         <v>267.15098793271102</v>
@@ -64501,7 +63835,7 @@
         <v>6</v>
       </c>
       <c r="C3702">
-        <v>0</v>
+        <v>122.88347878101401</v>
       </c>
       <c r="D3702">
         <v>140.182861213526</v>
@@ -64518,7 +63852,7 @@
         <v>7</v>
       </c>
       <c r="C3703">
-        <v>0</v>
+        <v>62.165965879069702</v>
       </c>
       <c r="D3703">
         <v>250.49385949014999</v>
@@ -64552,7 +63886,7 @@
         <v>6</v>
       </c>
       <c r="C3705">
-        <v>0</v>
+        <v>124.1657020669</v>
       </c>
       <c r="D3705">
         <v>144.32222428549099</v>
@@ -64569,7 +63903,7 @@
         <v>7</v>
       </c>
       <c r="C3706">
-        <v>0</v>
+        <v>65.425529255733295</v>
       </c>
       <c r="D3706">
         <v>235.392697401633</v>
@@ -64603,7 +63937,7 @@
         <v>6</v>
       </c>
       <c r="C3708">
-        <v>0</v>
+        <v>126.520891809557</v>
       </c>
       <c r="D3708">
         <v>148.66640645724701</v>
@@ -64620,7 +63954,7 @@
         <v>7</v>
       </c>
       <c r="C3709">
-        <v>0</v>
+        <v>68.327933698184495</v>
       </c>
       <c r="D3709">
         <v>217.91633988951699</v>
@@ -64654,7 +63988,7 @@
         <v>6</v>
       </c>
       <c r="C3711">
-        <v>0</v>
+        <v>129.137380575072</v>
       </c>
       <c r="D3711">
         <v>152.73904851081201</v>
@@ -64671,7 +64005,7 @@
         <v>7</v>
       </c>
       <c r="C3712">
-        <v>0</v>
+        <v>71.269599485497395</v>
       </c>
       <c r="D3712">
         <v>200.82286834236299</v>
@@ -64705,7 +64039,7 @@
         <v>6</v>
       </c>
       <c r="C3714">
-        <v>0</v>
+        <v>131.40527470661399</v>
       </c>
       <c r="D3714">
         <v>155.90432836458299</v>
@@ -64722,7 +64056,7 @@
         <v>7</v>
       </c>
       <c r="C3715">
-        <v>0</v>
+        <v>74.876543105328096</v>
       </c>
       <c r="D3715">
         <v>195.284089269693</v>
@@ -64756,7 +64090,7 @@
         <v>6</v>
       </c>
       <c r="C3717">
-        <v>0</v>
+        <v>133.89246047820799</v>
       </c>
       <c r="D3717">
         <v>158.637632671479</v>
@@ -64773,7 +64107,7 @@
         <v>7</v>
       </c>
       <c r="C3718">
-        <v>0</v>
+        <v>78.888986933947606</v>
       </c>
       <c r="D3718">
         <v>193.99474208261</v>
@@ -64807,7 +64141,7 @@
         <v>6</v>
       </c>
       <c r="C3720">
-        <v>0</v>
+        <v>136.033891778514</v>
       </c>
       <c r="D3720">
         <v>160.768488631004</v>
@@ -64824,7 +64158,7 @@
         <v>7</v>
       </c>
       <c r="C3721">
-        <v>0</v>
+        <v>84.139724886235598</v>
       </c>
       <c r="D3721">
         <v>192.891086281768</v>
@@ -64858,7 +64192,7 @@
         <v>6</v>
       </c>
       <c r="C3723">
-        <v>0</v>
+        <v>137.60452861950699</v>
       </c>
       <c r="D3723">
         <v>161.93587251519099</v>
@@ -64875,7 +64209,7 @@
         <v>7</v>
       </c>
       <c r="C3724">
-        <v>0</v>
+        <v>92.487626948042205</v>
       </c>
       <c r="D3724">
         <v>194.78250794279899</v>
@@ -64909,7 +64243,7 @@
         <v>6</v>
       </c>
       <c r="C3726">
-        <v>0</v>
+        <v>138.948598870453</v>
       </c>
       <c r="D3726">
         <v>162.680318984477</v>
@@ -64926,7 +64260,7 @@
         <v>7</v>
       </c>
       <c r="C3727">
-        <v>0</v>
+        <v>100.85648344091599</v>
       </c>
       <c r="D3727">
         <v>196.583193809455</v>
@@ -64960,7 +64294,7 @@
         <v>6</v>
       </c>
       <c r="C3729">
-        <v>0</v>
+        <v>139.81874361772299</v>
       </c>
       <c r="D3729">
         <v>162.98529248670499</v>
@@ -64977,7 +64311,7 @@
         <v>7</v>
       </c>
       <c r="C3730">
-        <v>0</v>
+        <v>108.923863962734</v>
       </c>
       <c r="D3730">
         <v>191.45083692168899</v>
@@ -65011,7 +64345,7 @@
         <v>6</v>
       </c>
       <c r="C3732">
-        <v>0</v>
+        <v>140.309519039717</v>
       </c>
       <c r="D3732">
         <v>162.74045246891399</v>
@@ -65028,7 +64362,7 @@
         <v>7</v>
       </c>
       <c r="C3733">
-        <v>0</v>
+        <v>117.61971028073</v>
       </c>
       <c r="D3733">
         <v>183.76356004802301</v>
@@ -65062,7 +64396,7 @@
         <v>6</v>
       </c>
       <c r="C3735">
-        <v>0</v>
+        <v>141.22265344908499</v>
       </c>
       <c r="D3735">
         <v>162.986956212016</v>
@@ -65079,7 +64413,7 @@
         <v>7</v>
       </c>
       <c r="C3736">
-        <v>0</v>
+        <v>122.252755067363</v>
       </c>
       <c r="D3736">
         <v>177.44546828415301</v>
@@ -65113,7 +64447,7 @@
         <v>6</v>
       </c>
       <c r="C3738">
-        <v>0</v>
+        <v>142.20444607050999</v>
       </c>
       <c r="D3738">
         <v>164.065808661143</v>
@@ -65130,7 +64464,7 @@
         <v>7</v>
       </c>
       <c r="C3739">
-        <v>0</v>
+        <v>120.88189306699999</v>
       </c>
       <c r="D3739">
         <v>172.28664535283701</v>
@@ -65164,7 +64498,7 @@
         <v>6</v>
       </c>
       <c r="C3741">
-        <v>0</v>
+        <v>143.65328692471101</v>
       </c>
       <c r="D3741">
         <v>165.332044829567</v>
@@ -65181,7 +64515,7 @@
         <v>7</v>
       </c>
       <c r="C3742">
-        <v>0</v>
+        <v>117.22292302663099</v>
       </c>
       <c r="D3742">
         <v>167.93639318536</v>
@@ -65215,7 +64549,7 @@
         <v>6</v>
       </c>
       <c r="C3744">
-        <v>0</v>
+        <v>146.44269096099799</v>
       </c>
       <c r="D3744">
         <v>167.04108376021901</v>
@@ -65232,7 +64566,7 @@
         <v>7</v>
       </c>
       <c r="C3745">
-        <v>0</v>
+        <v>109.36788381444001</v>
       </c>
       <c r="D3745">
         <v>167.337801642286</v>
@@ -65266,7 +64600,7 @@
         <v>6</v>
       </c>
       <c r="C3747">
-        <v>0</v>
+        <v>149.922562692855</v>
       </c>
       <c r="D3747">
         <v>169.10652609337299</v>
@@ -65283,7 +64617,7 @@
         <v>7</v>
       </c>
       <c r="C3748">
-        <v>0</v>
+        <v>97.569507492510795</v>
       </c>
       <c r="D3748">
         <v>168.76406899317999</v>
@@ -65317,7 +64651,7 @@
         <v>6</v>
       </c>
       <c r="C3750">
-        <v>0</v>
+        <v>153.737350973236</v>
       </c>
       <c r="D3750">
         <v>170.57784660815301</v>
@@ -65334,7 +64668,7 @@
         <v>7</v>
       </c>
       <c r="C3751">
-        <v>0</v>
+        <v>88.862922528080603</v>
       </c>
       <c r="D3751">
         <v>168.92329026002699</v>
@@ -65368,7 +64702,7 @@
         <v>6</v>
       </c>
       <c r="C3753">
-        <v>0</v>
+        <v>158.73758499652999</v>
       </c>
       <c r="D3753">
         <v>171.30671484481101</v>
@@ -65385,7 +64719,7 @@
         <v>7</v>
       </c>
       <c r="C3754">
-        <v>0</v>
+        <v>84.903557126115402</v>
       </c>
       <c r="D3754">
         <v>167.36696348566301</v>
@@ -65419,7 +64753,7 @@
         <v>6</v>
       </c>
       <c r="C3756">
-        <v>0</v>
+        <v>164.60589910439799</v>
       </c>
       <c r="D3756">
         <v>171.70028283154099</v>
@@ -65436,7 +64770,7 @@
         <v>7</v>
       </c>
       <c r="C3757">
-        <v>0</v>
+        <v>82.624946248150295</v>
       </c>
       <c r="D3757">
         <v>165.324152765934</v>
@@ -65470,7 +64804,7 @@
         <v>6</v>
       </c>
       <c r="C3759">
-        <v>0</v>
+        <v>169.23489987070599</v>
       </c>
       <c r="D3759">
         <v>171.64124907937699</v>
@@ -65487,7 +64821,7 @@
         <v>7</v>
       </c>
       <c r="C3760">
-        <v>0</v>
+        <v>81.979378496278002</v>
       </c>
       <c r="D3760">
         <v>162.019302202338</v>
@@ -65521,7 +64855,7 @@
         <v>6</v>
       </c>
       <c r="C3762">
-        <v>0</v>
+        <v>171.92056387164499</v>
       </c>
       <c r="D3762">
         <v>170.60802115665101</v>
@@ -65538,7 +64872,7 @@
         <v>7</v>
       </c>
       <c r="C3763">
-        <v>0</v>
+        <v>84.140104194485005</v>
       </c>
       <c r="D3763">
         <v>156.02448674238801</v>
@@ -65572,7 +64906,7 @@
         <v>6</v>
       </c>
       <c r="C3765">
-        <v>0</v>
+        <v>173.723896522063</v>
       </c>
       <c r="D3765">
         <v>168.897650309272</v>
@@ -65589,7 +64923,7 @@
         <v>7</v>
       </c>
       <c r="C3766">
-        <v>0</v>
+        <v>88.56261484513</v>
       </c>
       <c r="D3766">
         <v>148.26699895209501</v>
@@ -65623,7 +64957,7 @@
         <v>6</v>
       </c>
       <c r="C3768">
-        <v>0</v>
+        <v>175.185047653813</v>
       </c>
       <c r="D3768">
         <v>167.620800564631</v>
@@ -65640,7 +64974,7 @@
         <v>7</v>
       </c>
       <c r="C3769">
-        <v>0</v>
+        <v>92.622560817864098</v>
       </c>
       <c r="D3769">
         <v>141.50410936070901</v>
@@ -65674,7 +65008,7 @@
         <v>6</v>
       </c>
       <c r="C3771">
-        <v>0</v>
+        <v>175.53987814982199</v>
       </c>
       <c r="D3771">
         <v>166.64358492471899</v>
@@ -65691,7 +65025,7 @@
         <v>7</v>
       </c>
       <c r="C3772">
-        <v>0</v>
+        <v>96.752866061720596</v>
       </c>
       <c r="D3772">
         <v>136.09429356357299</v>
@@ -65725,7 +65059,7 @@
         <v>6</v>
       </c>
       <c r="C3774">
-        <v>0</v>
+        <v>175.64832469199101</v>
       </c>
       <c r="D3774">
         <v>165.980231080751</v>
@@ -65742,7 +65076,7 @@
         <v>7</v>
       </c>
       <c r="C3775">
-        <v>0</v>
+        <v>100.693396083702</v>
       </c>
       <c r="D3775">
         <v>131.31844512171801</v>
@@ -65776,7 +65110,7 @@
         <v>6</v>
       </c>
       <c r="C3777">
-        <v>0</v>
+        <v>176.41764799336499</v>
       </c>
       <c r="D3777">
         <v>166.153933056657</v>
@@ -65793,7 +65127,7 @@
         <v>7</v>
       </c>
       <c r="C3778">
-        <v>0</v>
+        <v>103.370332893208</v>
       </c>
       <c r="D3778">
         <v>127.898110755836</v>
@@ -65827,7 +65161,7 @@
         <v>6</v>
       </c>
       <c r="C3780">
-        <v>0</v>
+        <v>177.132871388849</v>
       </c>
       <c r="D3780">
         <v>166.72514879280399</v>
@@ -65844,7 +65178,7 @@
         <v>7</v>
       </c>
       <c r="C3781">
-        <v>0</v>
+        <v>105.686590934243</v>
       </c>
       <c r="D3781">
         <v>125.421981237791</v>
@@ -65878,7 +65212,7 @@
         <v>6</v>
       </c>
       <c r="C3783">
-        <v>0</v>
+        <v>178.33690234154699</v>
       </c>
       <c r="D3783">
         <v>167.58261022507</v>
@@ -65895,7 +65229,7 @@
         <v>7</v>
       </c>
       <c r="C3784">
-        <v>0</v>
+        <v>106.94333156531501</v>
       </c>
       <c r="D3784">
         <v>123.331670122123</v>
@@ -65929,7 +65263,7 @@
         <v>6</v>
       </c>
       <c r="C3786">
-        <v>0</v>
+        <v>180.02632048159199</v>
       </c>
       <c r="D3786">
         <v>168.36010128696299</v>
@@ -65946,7 +65280,7 @@
         <v>7</v>
       </c>
       <c r="C3787">
-        <v>0</v>
+        <v>105.97504010718301</v>
       </c>
       <c r="D3787">
         <v>121.65596115394101</v>
@@ -65980,7 +65314,7 @@
         <v>6</v>
       </c>
       <c r="C3789">
-        <v>0</v>
+        <v>182.02844979631999</v>
       </c>
       <c r="D3789">
         <v>169.31256519320399</v>
@@ -65997,7 +65331,7 @@
         <v>7</v>
       </c>
       <c r="C3790">
-        <v>0</v>
+        <v>103.665795044167</v>
       </c>
       <c r="D3790">
         <v>120.49701679270601</v>
@@ -66031,7 +65365,7 @@
         <v>6</v>
       </c>
       <c r="C3792">
-        <v>0</v>
+        <v>184.63231428462899</v>
       </c>
       <c r="D3792">
         <v>171.26047280148799</v>
@@ -66048,7 +65382,7 @@
         <v>7</v>
       </c>
       <c r="C3793">
-        <v>0</v>
+        <v>102.39114748011301</v>
       </c>
       <c r="D3793">
         <v>119.406518664488</v>
@@ -66082,7 +65416,7 @@
         <v>6</v>
       </c>
       <c r="C3795">
-        <v>0</v>
+        <v>188.01698871936199</v>
       </c>
       <c r="D3795">
         <v>174.59925385758399</v>
@@ -66099,7 +65433,7 @@
         <v>7</v>
       </c>
       <c r="C3796">
-        <v>0</v>
+        <v>102.892930872769</v>
       </c>
       <c r="D3796">
         <v>118.76560710357001</v>
@@ -66133,7 +65467,7 @@
         <v>6</v>
       </c>
       <c r="C3798">
-        <v>0</v>
+        <v>191.99521656073</v>
       </c>
       <c r="D3798">
         <v>178.865265561375</v>
@@ -66150,7 +65484,7 @@
         <v>7</v>
       </c>
       <c r="C3799">
-        <v>0</v>
+        <v>103.967904004975</v>
       </c>
       <c r="D3799">
         <v>118.52622436787701</v>
@@ -66184,7 +65518,7 @@
         <v>6</v>
       </c>
       <c r="C3801">
-        <v>0</v>
+        <v>196.30652483868201</v>
       </c>
       <c r="D3801">
         <v>183.59036995172701</v>
@@ -66201,7 +65535,7 @@
         <v>7</v>
       </c>
       <c r="C3802">
-        <v>0</v>
+        <v>105.07400596822001</v>
       </c>
       <c r="D3802">
         <v>117.596254968944</v>
@@ -66235,7 +65569,7 @@
         <v>6</v>
       </c>
       <c r="C3804">
-        <v>0</v>
+        <v>201.90678745765001</v>
       </c>
       <c r="D3804">
         <v>190.29461732988699</v>
@@ -66252,7 +65586,7 @@
         <v>7</v>
       </c>
       <c r="C3805">
-        <v>0</v>
+        <v>107.68236597936</v>
       </c>
       <c r="D3805">
         <v>115.695170032915</v>
@@ -66286,7 +65620,7 @@
         <v>6</v>
       </c>
       <c r="C3807">
-        <v>0</v>
+        <v>207.55863213199899</v>
       </c>
       <c r="D3807">
         <v>197.01191007013099</v>
@@ -66303,7 +65637,7 @@
         <v>7</v>
       </c>
       <c r="C3808">
-        <v>0</v>
+        <v>109.92315355203</v>
       </c>
       <c r="D3808">
         <v>113.397757882148</v>
@@ -66337,7 +65671,7 @@
         <v>6</v>
       </c>
       <c r="C3810">
-        <v>0</v>
+        <v>212.39712706507299</v>
       </c>
       <c r="D3810">
         <v>202.047349191905</v>
@@ -66354,7 +65688,7 @@
         <v>7</v>
       </c>
       <c r="C3811">
-        <v>0</v>
+        <v>109.469872710212</v>
       </c>
       <c r="D3811">
         <v>110.46897178332</v>
@@ -66388,7 +65722,7 @@
         <v>6</v>
       </c>
       <c r="C3813">
-        <v>0</v>
+        <v>217.16639394288799</v>
       </c>
       <c r="D3813">
         <v>206.840523495502</v>
@@ -66405,7 +65739,7 @@
         <v>7</v>
       </c>
       <c r="C3814">
-        <v>0</v>
+        <v>107.991707328128</v>
       </c>
       <c r="D3814">
         <v>106.975341506112</v>
@@ -66439,7 +65773,7 @@
         <v>6</v>
       </c>
       <c r="C3816">
-        <v>0</v>
+        <v>220.72967073430701</v>
       </c>
       <c r="D3816">
         <v>210.395804800598</v>
@@ -66456,7 +65790,7 @@
         <v>7</v>
       </c>
       <c r="C3817">
-        <v>0</v>
+        <v>105.928676717794</v>
       </c>
       <c r="D3817">
         <v>103.560092110879</v>
@@ -66490,7 +65824,7 @@
         <v>6</v>
       </c>
       <c r="C3819">
-        <v>0</v>
+        <v>222.306774838108</v>
       </c>
       <c r="D3819">
         <v>211.742935904891</v>
@@ -66507,7 +65841,7 @@
         <v>7</v>
       </c>
       <c r="C3820">
-        <v>0</v>
+        <v>102.359108733814</v>
       </c>
       <c r="D3820">
         <v>100.18108848441599</v>
@@ -66541,7 +65875,7 @@
         <v>6</v>
       </c>
       <c r="C3822">
-        <v>0</v>
+        <v>222.730382382041</v>
       </c>
       <c r="D3822">
         <v>211.68848646935299</v>
@@ -66558,7 +65892,7 @@
         <v>7</v>
       </c>
       <c r="C3823">
-        <v>0</v>
+        <v>97.670861618081204</v>
       </c>
       <c r="D3823">
         <v>96.676836574544197</v>
@@ -66592,7 +65926,7 @@
         <v>6</v>
       </c>
       <c r="C3825">
-        <v>0</v>
+        <v>223.283019428431</v>
       </c>
       <c r="D3825">
         <v>211.90206860857</v>
@@ -66609,7 +65943,7 @@
         <v>7</v>
       </c>
       <c r="C3826">
-        <v>0</v>
+        <v>94.268250263544203</v>
       </c>
       <c r="D3826">
         <v>93.511523033156195</v>
@@ -66643,7 +65977,7 @@
         <v>6</v>
       </c>
       <c r="C3828">
-        <v>0</v>
+        <v>223.707440335662</v>
       </c>
       <c r="D3828">
         <v>213.185007560076</v>
@@ -66660,7 +65994,7 @@
         <v>7</v>
       </c>
       <c r="C3829">
-        <v>0</v>
+        <v>93.074159976242498</v>
       </c>
       <c r="D3829">
         <v>90.382998508590305</v>
@@ -66694,7 +66028,7 @@
         <v>6</v>
       </c>
       <c r="C3831">
-        <v>0</v>
+        <v>223.67397831722499</v>
       </c>
       <c r="D3831">
         <v>214.620481248223</v>
@@ -66711,7 +66045,7 @@
         <v>7</v>
       </c>
       <c r="C3832">
-        <v>0</v>
+        <v>92.787500165890506</v>
       </c>
       <c r="D3832">
         <v>87.246465004923195</v>
@@ -66745,7 +66079,7 @@
         <v>6</v>
       </c>
       <c r="C3834">
-        <v>0</v>
+        <v>224.35652771811201</v>
       </c>
       <c r="D3834">
         <v>215.30088081782199</v>
@@ -66762,7 +66096,7 @@
         <v>7</v>
       </c>
       <c r="C3835">
-        <v>0</v>
+        <v>92.476621880950304</v>
       </c>
       <c r="D3835">
         <v>84.952136207656807</v>
@@ -66796,7 +66130,7 @@
         <v>6</v>
       </c>
       <c r="C3837">
-        <v>0</v>
+        <v>226.607674175715</v>
       </c>
       <c r="D3837">
         <v>215.24719703448099</v>
@@ -66813,7 +66147,7 @@
         <v>7</v>
       </c>
       <c r="C3838">
-        <v>0</v>
+        <v>92.584611192041194</v>
       </c>
       <c r="D3838">
         <v>83.638531089854695</v>
@@ -66847,7 +66181,7 @@
         <v>6</v>
       </c>
       <c r="C3840">
-        <v>0</v>
+        <v>229.11909845593101</v>
       </c>
       <c r="D3840">
         <v>214.64047923080801</v>
@@ -66864,7 +66198,7 @@
         <v>7</v>
       </c>
       <c r="C3841">
-        <v>0</v>
+        <v>92.714985506163799</v>
       </c>
       <c r="D3841">
         <v>83.021416104652303</v>
@@ -66898,7 +66232,7 @@
         <v>6</v>
       </c>
       <c r="C3843">
-        <v>0</v>
+        <v>226.08820348668601</v>
       </c>
       <c r="D3843">
         <v>214.690068277059</v>
@@ -66915,7 +66249,7 @@
         <v>7</v>
       </c>
       <c r="C3844">
-        <v>0</v>
+        <v>89.954349272500593</v>
       </c>
       <c r="D3844">
         <v>84.811497133256793</v>
@@ -66949,7 +66283,7 @@
         <v>6</v>
       </c>
       <c r="C3846">
-        <v>0</v>
+        <v>219.63142243284199</v>
       </c>
       <c r="D3846">
         <v>215.103621928113</v>
@@ -66966,7 +66300,7 @@
         <v>7</v>
       </c>
       <c r="C3847">
-        <v>0</v>
+        <v>85.729813866208801</v>
       </c>
       <c r="D3847">
         <v>88.253835116365806</v>
@@ -67000,7 +66334,7 @@
         <v>6</v>
       </c>
       <c r="C3849">
-        <v>0</v>
+        <v>219.55983768754299</v>
       </c>
       <c r="D3849">
         <v>212.961094506221</v>
@@ -67017,7 +66351,7 @@
         <v>7</v>
       </c>
       <c r="C3850">
-        <v>0</v>
+        <v>84.361137729285602</v>
       </c>
       <c r="D3850">
         <v>89.866047548824298</v>
@@ -67051,7 +66385,7 @@
         <v>6</v>
       </c>
       <c r="C3852">
-        <v>0</v>
+        <v>215.89355326691</v>
       </c>
       <c r="D3852">
         <v>210.74373316829599</v>
@@ -67068,7 +66402,7 @@
         <v>7</v>
       </c>
       <c r="C3853">
-        <v>0</v>
+        <v>82.906780106025195</v>
       </c>
       <c r="D3853">
         <v>90.772970929403002</v>
@@ -67102,7 +66436,7 @@
         <v>6</v>
       </c>
       <c r="C3855">
-        <v>0</v>
+        <v>224.87565405406801</v>
       </c>
       <c r="D3855">
         <v>204.42191781599399</v>
@@ -67119,7 +66453,7 @@
         <v>7</v>
       </c>
       <c r="C3856">
-        <v>0</v>
+        <v>85.8326479609334</v>
       </c>
       <c r="D3856">
         <v>89.521016826332399</v>
@@ -67153,7 +66487,7 @@
         <v>6</v>
       </c>
       <c r="C3858">
-        <v>37.6297386452487</v>
+        <v>261.97451300575801</v>
       </c>
       <c r="D3858">
         <v>190.02226110739201</v>
@@ -67170,7 +66504,7 @@
         <v>7</v>
       </c>
       <c r="C3859">
-        <v>12.543246215082901</v>
+        <v>97.958981157010996</v>
       </c>
       <c r="D3859">
         <v>83.876719288965006</v>
@@ -67204,7 +66538,7 @@
         <v>6</v>
       </c>
       <c r="C3861">
-        <v>108.81669543791701</v>
+        <v>312.57954604169697</v>
       </c>
       <c r="D3861">
         <v>171.32501747742501</v>
@@ -67221,7 +66555,7 @@
         <v>7</v>
       </c>
       <c r="C3862">
-        <v>36.272231812638999</v>
+        <v>114.72024888700599</v>
       </c>
       <c r="D3862">
         <v>76.014456974694895</v>
@@ -67255,7 +66589,7 @@
         <v>6</v>
       </c>
       <c r="C3864">
-        <v>204.61440257383299</v>
+        <v>380.717871299997</v>
       </c>
       <c r="D3864">
         <v>147.274303030738</v>
@@ -67272,7 +66606,7 @@
         <v>7</v>
       </c>
       <c r="C3865">
-        <v>68.204800857944207</v>
+        <v>137.468725167852</v>
       </c>
       <c r="D3865">
         <v>65.195976894618894</v>
@@ -67306,7 +66640,7 @@
         <v>6</v>
       </c>
       <c r="C3867">
-        <v>329.06845137168699</v>
+        <v>469.38749346568699</v>
       </c>
       <c r="D3867">
         <v>117.062188491569</v>
@@ -67323,7 +66657,7 @@
         <v>7</v>
       </c>
       <c r="C3868">
-        <v>109.68948379056199</v>
+        <v>167.19040608632099</v>
       </c>
       <c r="D3868">
         <v>50.866534159368598</v>
@@ -67357,7 +66691,7 @@
         <v>6</v>
       </c>
       <c r="C3870">
-        <v>479.400898466532</v>
+        <v>576.53268296406804</v>
       </c>
       <c r="D3870">
         <v>81.218600035247604</v>
@@ -67374,7 +66708,7 @@
         <v>7</v>
       </c>
       <c r="C3871">
-        <v>159.80029948884399</v>
+        <v>203.18999704417101</v>
       </c>
       <c r="D3871">
         <v>33.394347504208497</v>
@@ -68020,7 +67354,7 @@
         <v>6</v>
       </c>
       <c r="C3909">
-        <v>2.7822497030908502</v>
+        <v>0</v>
       </c>
       <c r="D3909">
         <v>0</v>
@@ -68071,7 +67405,7 @@
         <v>6</v>
       </c>
       <c r="C3912">
-        <v>5.8765174293079401</v>
+        <v>0</v>
       </c>
       <c r="D3912">
         <v>0</v>
@@ -68122,7 +67456,7 @@
         <v>6</v>
       </c>
       <c r="C3915">
-        <v>10.1133795371316</v>
+        <v>8.4688143850765094</v>
       </c>
       <c r="D3915">
         <v>0</v>
@@ -68173,7 +67507,7 @@
         <v>6</v>
       </c>
       <c r="C3918">
-        <v>15.129701788234</v>
+        <v>21.444610514164602</v>
       </c>
       <c r="D3918">
         <v>0</v>
@@ -68224,7 +67558,7 @@
         <v>6</v>
       </c>
       <c r="C3921">
-        <v>17.815702762600001</v>
+        <v>36.6847375792359</v>
       </c>
       <c r="D3921">
         <v>5.9971523105401197</v>
@@ -68275,7 +67609,7 @@
         <v>6</v>
       </c>
       <c r="C3924">
-        <v>16.815705520821101</v>
+        <v>58.232318059319503</v>
       </c>
       <c r="D3924">
         <v>22.647015527319301</v>
@@ -68292,7 +67626,7 @@
         <v>7</v>
       </c>
       <c r="C3925">
-        <v>0.25036831356249301</v>
+        <v>0</v>
       </c>
       <c r="D3925">
         <v>20.764349674112498</v>
@@ -68326,7 +67660,7 @@
         <v>6</v>
       </c>
       <c r="C3927">
-        <v>13.9875456185451</v>
+        <v>84.470664439763098</v>
       </c>
       <c r="D3927">
         <v>44.827692390157701</v>
@@ -68343,7 +67677,7 @@
         <v>7</v>
       </c>
       <c r="C3928">
-        <v>4.5227824436063404</v>
+        <v>2.6855722967012801</v>
       </c>
       <c r="D3928">
         <v>40.113186519501703</v>
@@ -68377,7 +67711,7 @@
         <v>6</v>
       </c>
       <c r="C3930">
-        <v>11.041710378340699</v>
+        <v>105.43588951296999</v>
       </c>
       <c r="D3930">
         <v>64.740426010850896</v>
@@ -68394,7 +67728,7 @@
         <v>7</v>
       </c>
       <c r="C3931">
-        <v>9.22317490795899</v>
+        <v>7.2283410480349</v>
       </c>
       <c r="D3931">
         <v>59.963665122867802</v>
@@ -68428,7 +67762,7 @@
         <v>6</v>
       </c>
       <c r="C3933">
-        <v>5.6238328273141898</v>
+        <v>120.83818354069101</v>
       </c>
       <c r="D3933">
         <v>85.863863323932605</v>
@@ -68445,7 +67779,7 @@
         <v>7</v>
       </c>
       <c r="C3934">
-        <v>17.729995169539102</v>
+        <v>14.9532859725128</v>
       </c>
       <c r="D3934">
         <v>78.6508885901101</v>
@@ -68479,7 +67813,7 @@
         <v>6</v>
       </c>
       <c r="C3936">
-        <v>0.13328135559283799</v>
+        <v>133.00367780657399</v>
       </c>
       <c r="D3936">
         <v>105.61371953076601</v>
@@ -68496,7 +67830,7 @@
         <v>7</v>
       </c>
       <c r="C3937">
-        <v>25.384808478718199</v>
+        <v>23.338280820668</v>
       </c>
       <c r="D3937">
         <v>100.594215520338</v>
@@ -68530,7 +67864,7 @@
         <v>6</v>
       </c>
       <c r="C3939">
-        <v>0</v>
+        <v>136.665530565605</v>
       </c>
       <c r="D3939">
         <v>115.68559442719101</v>
@@ -68547,7 +67881,7 @@
         <v>7</v>
       </c>
       <c r="C3940">
-        <v>27.5394220583178</v>
+        <v>31.488555845225001</v>
       </c>
       <c r="D3940">
         <v>129.22088618185799</v>
@@ -68581,7 +67915,7 @@
         <v>6</v>
       </c>
       <c r="C3942">
-        <v>0</v>
+        <v>134.724413117159</v>
       </c>
       <c r="D3942">
         <v>121.302530448341</v>
@@ -68598,7 +67932,7 @@
         <v>7</v>
       </c>
       <c r="C3943">
-        <v>28.115345708312699</v>
+        <v>40.605463651402502</v>
       </c>
       <c r="D3943">
         <v>161.43829483550499</v>
@@ -68632,7 +67966,7 @@
         <v>6</v>
       </c>
       <c r="C3945">
-        <v>0</v>
+        <v>133.39161935307899</v>
       </c>
       <c r="D3945">
         <v>125.86253706519599</v>
@@ -68649,7 +67983,7 @@
         <v>7</v>
       </c>
       <c r="C3946">
-        <v>26.7606217786184</v>
+        <v>47.667386769539398</v>
       </c>
       <c r="D3946">
         <v>192.76384568843</v>
@@ -68683,7 +68017,7 @@
         <v>6</v>
       </c>
       <c r="C3948">
-        <v>0</v>
+        <v>133.00332901177001</v>
       </c>
       <c r="D3948">
         <v>128.915856697837</v>
@@ -68700,7 +68034,7 @@
         <v>7</v>
       </c>
       <c r="C3949">
-        <v>20.595293707247901</v>
+        <v>50.709964469772203</v>
       </c>
       <c r="D3949">
         <v>230.69831024513499</v>
@@ -68734,7 +68068,7 @@
         <v>6</v>
       </c>
       <c r="C3951">
-        <v>0</v>
+        <v>131.49136138371699</v>
       </c>
       <c r="D3951">
         <v>130.00776901163499</v>
@@ -68751,7 +68085,7 @@
         <v>7</v>
       </c>
       <c r="C3952">
-        <v>10.8878957524604</v>
+        <v>51.535285253201202</v>
       </c>
       <c r="D3952">
         <v>273.51854331704197</v>
@@ -68785,7 +68119,7 @@
         <v>6</v>
       </c>
       <c r="C3954">
-        <v>0</v>
+        <v>131.460469688876</v>
       </c>
       <c r="D3954">
         <v>132.528839345508</v>
@@ -68802,7 +68136,7 @@
         <v>7</v>
       </c>
       <c r="C3955">
-        <v>3.50920649454046</v>
+        <v>52.771405496610903</v>
       </c>
       <c r="D3955">
         <v>302.90607407167698</v>
@@ -68836,7 +68170,7 @@
         <v>6</v>
       </c>
       <c r="C3957">
-        <v>0</v>
+        <v>134.523053409721</v>
       </c>
       <c r="D3957">
         <v>137.640487125775</v>
@@ -68853,7 +68187,7 @@
         <v>7</v>
       </c>
       <c r="C3958">
-        <v>0.41142717970513498</v>
+        <v>54.856308489708901</v>
       </c>
       <c r="D3958">
         <v>309.632599385047</v>
@@ -68887,7 +68221,7 @@
         <v>6</v>
       </c>
       <c r="C3960">
-        <v>0</v>
+        <v>138.96732913509001</v>
       </c>
       <c r="D3960">
         <v>143.44012639481599</v>
@@ -68904,7 +68238,7 @@
         <v>7</v>
       </c>
       <c r="C3961">
-        <v>0</v>
+        <v>56.910758920655702</v>
       </c>
       <c r="D3961">
         <v>303.92998718378698</v>
@@ -68938,7 +68272,7 @@
         <v>6</v>
       </c>
       <c r="C3963">
-        <v>0</v>
+        <v>142.41177574448599</v>
       </c>
       <c r="D3963">
         <v>148.72231441564901</v>
@@ -68955,7 +68289,7 @@
         <v>7</v>
       </c>
       <c r="C3964">
-        <v>0</v>
+        <v>59.586985263915899</v>
       </c>
       <c r="D3964">
         <v>296.67002321137301</v>
@@ -68989,7 +68323,7 @@
         <v>6</v>
       </c>
       <c r="C3966">
-        <v>0</v>
+        <v>144.85628182224599</v>
       </c>
       <c r="D3966">
         <v>154.09561810221601</v>
@@ -69006,7 +68340,7 @@
         <v>7</v>
       </c>
       <c r="C3967">
-        <v>0</v>
+        <v>64.222386853956294</v>
       </c>
       <c r="D3967">
         <v>281.24355570879402</v>
@@ -69040,7 +68374,7 @@
         <v>6</v>
       </c>
       <c r="C3969">
-        <v>0</v>
+        <v>146.63115663830001</v>
       </c>
       <c r="D3969">
         <v>158.99499176692399</v>
@@ -69057,7 +68391,7 @@
         <v>7</v>
       </c>
       <c r="C3970">
-        <v>0</v>
+        <v>68.673115922974901</v>
       </c>
       <c r="D3970">
         <v>264.50899044175998</v>
@@ -69091,7 +68425,7 @@
         <v>6</v>
       </c>
       <c r="C3972">
-        <v>0</v>
+        <v>146.229936719476</v>
       </c>
       <c r="D3972">
         <v>162.09860129524799</v>
@@ -69108,7 +68442,7 @@
         <v>7</v>
       </c>
       <c r="C3973">
-        <v>0</v>
+        <v>70.941266988512396</v>
       </c>
       <c r="D3973">
         <v>261.47037967849701</v>
@@ -69142,7 +68476,7 @@
         <v>6</v>
       </c>
       <c r="C3975">
-        <v>0</v>
+        <v>144.551556422874</v>
       </c>
       <c r="D3975">
         <v>164.31231975846001</v>
@@ -69159,7 +68493,7 @@
         <v>7</v>
       </c>
       <c r="C3976">
-        <v>0</v>
+        <v>72.693506103485603</v>
       </c>
       <c r="D3976">
         <v>261.777406077053</v>
@@ -69193,7 +68527,7 @@
         <v>6</v>
       </c>
       <c r="C3978">
-        <v>0</v>
+        <v>143.31822240178701</v>
       </c>
       <c r="D3978">
         <v>166.01184629597401</v>
@@ -69210,7 +68544,7 @@
         <v>7</v>
       </c>
       <c r="C3979">
-        <v>0</v>
+        <v>74.857048392020104</v>
       </c>
       <c r="D3979">
         <v>258.47163725272202</v>
@@ -69244,7 +68578,7 @@
         <v>6</v>
       </c>
       <c r="C3981">
-        <v>0</v>
+        <v>142.08414514728099</v>
       </c>
       <c r="D3981">
         <v>166.65590539361801</v>
@@ -69261,7 +68595,7 @@
         <v>7</v>
       </c>
       <c r="C3982">
-        <v>0</v>
+        <v>76.341651713083095</v>
       </c>
       <c r="D3982">
         <v>252.88073954259701</v>
@@ -69295,7 +68629,7 @@
         <v>6</v>
       </c>
       <c r="C3984">
-        <v>0</v>
+        <v>141.150297837403</v>
       </c>
       <c r="D3984">
         <v>166.895446855259</v>
@@ -69312,7 +68646,7 @@
         <v>7</v>
       </c>
       <c r="C3985">
-        <v>0</v>
+        <v>78.109844696511104</v>
       </c>
       <c r="D3985">
         <v>245.41539504834</v>
@@ -69346,7 +68680,7 @@
         <v>6</v>
       </c>
       <c r="C3987">
-        <v>0</v>
+        <v>141.710758214663</v>
       </c>
       <c r="D3987">
         <v>167.308800541778</v>
@@ -69363,7 +68697,7 @@
         <v>7</v>
       </c>
       <c r="C3988">
-        <v>0</v>
+        <v>83.013022717130497</v>
       </c>
       <c r="D3988">
         <v>226.347299930552</v>
@@ -69397,7 +68731,7 @@
         <v>6</v>
       </c>
       <c r="C3990">
-        <v>0</v>
+        <v>142.89263687474201</v>
       </c>
       <c r="D3990">
         <v>167.42530040667299</v>
@@ -69414,7 +68748,7 @@
         <v>7</v>
       </c>
       <c r="C3991">
-        <v>0</v>
+        <v>89.288005683193404</v>
       </c>
       <c r="D3991">
         <v>200.557835168579</v>
@@ -69448,7 +68782,7 @@
         <v>6</v>
       </c>
       <c r="C3993">
-        <v>0</v>
+        <v>144.43783378117101</v>
       </c>
       <c r="D3993">
         <v>167.83548970532999</v>
@@ -69465,7 +68799,7 @@
         <v>7</v>
       </c>
       <c r="C3994">
-        <v>0</v>
+        <v>94.019301675268096</v>
       </c>
       <c r="D3994">
         <v>181.62761925269399</v>
@@ -69499,7 +68833,7 @@
         <v>6</v>
       </c>
       <c r="C3996">
-        <v>0</v>
+        <v>146.776051575254</v>
       </c>
       <c r="D3996">
         <v>168.721085531808</v>
@@ -69516,7 +68850,7 @@
         <v>7</v>
       </c>
       <c r="C3997">
-        <v>0</v>
+        <v>97.987614468001695</v>
       </c>
       <c r="D3997">
         <v>171.48825064245699</v>
@@ -69550,7 +68884,7 @@
         <v>6</v>
       </c>
       <c r="C3999">
-        <v>0</v>
+        <v>149.47200036548401</v>
       </c>
       <c r="D3999">
         <v>169.69135465686799</v>
@@ -69567,7 +68901,7 @@
         <v>7</v>
       </c>
       <c r="C4000">
-        <v>0</v>
+        <v>100.984244003865</v>
       </c>
       <c r="D4000">
         <v>165.087744960159</v>
@@ -69601,7 +68935,7 @@
         <v>6</v>
       </c>
       <c r="C4002">
-        <v>0</v>
+        <v>152.013790086142</v>
       </c>
       <c r="D4002">
         <v>171.00907950677501</v>
@@ -69618,7 +68952,7 @@
         <v>7</v>
       </c>
       <c r="C4003">
-        <v>0</v>
+        <v>99.226101658615605</v>
       </c>
       <c r="D4003">
         <v>169.265614372671</v>
@@ -69652,7 +68986,7 @@
         <v>6</v>
       </c>
       <c r="C4005">
-        <v>0</v>
+        <v>154.76700404188901</v>
       </c>
       <c r="D4005">
         <v>172.57331701031001</v>
@@ -69669,7 +69003,7 @@
         <v>7</v>
       </c>
       <c r="C4006">
-        <v>0</v>
+        <v>94.665478408840599</v>
       </c>
       <c r="D4006">
         <v>180.986152906059</v>
@@ -69703,7 +69037,7 @@
         <v>6</v>
       </c>
       <c r="C4008">
-        <v>0</v>
+        <v>157.492263452614</v>
       </c>
       <c r="D4008">
         <v>173.57034669169201</v>
@@ -69720,7 +69054,7 @@
         <v>7</v>
       </c>
       <c r="C4009">
-        <v>0</v>
+        <v>91.505845988085298</v>
       </c>
       <c r="D4009">
         <v>188.54177758347899</v>
@@ -69754,7 +69088,7 @@
         <v>6</v>
       </c>
       <c r="C4011">
-        <v>0</v>
+        <v>160.46522015243599</v>
       </c>
       <c r="D4011">
         <v>173.86920474886301</v>
@@ -69771,7 +69105,7 @@
         <v>7</v>
       </c>
       <c r="C4012">
-        <v>0</v>
+        <v>86.797367815921504</v>
       </c>
       <c r="D4012">
         <v>189.32255407143199</v>
@@ -69805,7 +69139,7 @@
         <v>6</v>
       </c>
       <c r="C4014">
-        <v>0</v>
+        <v>163.61618762261301</v>
       </c>
       <c r="D4014">
         <v>173.814607810854</v>
@@ -69822,7 +69156,7 @@
         <v>7</v>
       </c>
       <c r="C4015">
-        <v>0</v>
+        <v>81.028216753261106</v>
       </c>
       <c r="D4015">
         <v>188.19895331841701</v>
@@ -69856,7 +69190,7 @@
         <v>6</v>
       </c>
       <c r="C4017">
-        <v>0</v>
+        <v>166.18777955373599</v>
       </c>
       <c r="D4017">
         <v>173.30635604851699</v>
@@ -69873,7 +69207,7 @@
         <v>7</v>
       </c>
       <c r="C4018">
-        <v>0</v>
+        <v>83.558878695660695</v>
       </c>
       <c r="D4018">
         <v>184.684000270588</v>
@@ -69907,7 +69241,7 @@
         <v>6</v>
       </c>
       <c r="C4020">
-        <v>0</v>
+        <v>167.71711077378299</v>
       </c>
       <c r="D4020">
         <v>171.78073988976101</v>
@@ -69924,7 +69258,7 @@
         <v>7</v>
       </c>
       <c r="C4021">
-        <v>0</v>
+        <v>100.96373276671601</v>
       </c>
       <c r="D4021">
         <v>176.87169983606</v>
@@ -69958,7 +69292,7 @@
         <v>6</v>
       </c>
       <c r="C4023">
-        <v>0</v>
+        <v>168.71358989548199</v>
       </c>
       <c r="D4023">
         <v>169.539797933312</v>
@@ -69975,7 +69309,7 @@
         <v>7</v>
       </c>
       <c r="C4024">
-        <v>0</v>
+        <v>126.856446973449</v>
       </c>
       <c r="D4024">
         <v>166.00011375767701</v>
@@ -70009,7 +69343,7 @@
         <v>6</v>
       </c>
       <c r="C4026">
-        <v>0</v>
+        <v>169.87827128656099</v>
       </c>
       <c r="D4026">
         <v>167.78195260625401</v>
@@ -70026,7 +69360,7 @@
         <v>7</v>
       </c>
       <c r="C4027">
-        <v>0</v>
+        <v>151.15644053655399</v>
       </c>
       <c r="D4027">
         <v>156.29835223367999</v>
@@ -70060,7 +69394,7 @@
         <v>6</v>
       </c>
       <c r="C4029">
-        <v>0</v>
+        <v>170.87713243237701</v>
       </c>
       <c r="D4029">
         <v>166.35931465530101</v>
@@ -70077,7 +69411,7 @@
         <v>7</v>
       </c>
       <c r="C4030">
-        <v>0</v>
+        <v>185.74211349502701</v>
       </c>
       <c r="D4030">
         <v>147.76638458645999</v>
@@ -70111,7 +69445,7 @@
         <v>6</v>
       </c>
       <c r="C4032">
-        <v>0</v>
+        <v>171.92949734134399</v>
       </c>
       <c r="D4032">
         <v>165.28761214246001</v>
@@ -70128,7 +69462,7 @@
         <v>7</v>
       </c>
       <c r="C4033">
-        <v>0</v>
+        <v>216.01754753861101</v>
       </c>
       <c r="D4033">
         <v>139.81550685516899</v>
@@ -70162,7 +69496,7 @@
         <v>6</v>
       </c>
       <c r="C4035">
-        <v>0</v>
+        <v>173.72174706655699</v>
       </c>
       <c r="D4035">
         <v>165.13892256160099</v>
@@ -70179,7 +69513,7 @@
         <v>7</v>
       </c>
       <c r="C4036">
-        <v>0</v>
+        <v>222.514587894203</v>
       </c>
       <c r="D4036">
         <v>133.65874570196399</v>
@@ -70213,7 +69547,7 @@
         <v>6</v>
       </c>
       <c r="C4038">
-        <v>0</v>
+        <v>175.81689775382699</v>
       </c>
       <c r="D4038">
         <v>165.46872886355101</v>
@@ -70230,7 +69564,7 @@
         <v>7</v>
       </c>
       <c r="C4039">
-        <v>0</v>
+        <v>220.27491440780099</v>
       </c>
       <c r="D4039">
         <v>128.411030231128</v>
@@ -70264,7 +69598,7 @@
         <v>6</v>
       </c>
       <c r="C4041">
-        <v>0</v>
+        <v>178.06097619452399</v>
       </c>
       <c r="D4041">
         <v>166.195987633779</v>
@@ -70281,7 +69615,7 @@
         <v>7</v>
       </c>
       <c r="C4042">
-        <v>0</v>
+        <v>211.27122070487999</v>
       </c>
       <c r="D4042">
         <v>124.27131437924299</v>
@@ -70315,7 +69649,7 @@
         <v>6</v>
       </c>
       <c r="C4044">
-        <v>0</v>
+        <v>180.34371202349601</v>
       </c>
       <c r="D4044">
         <v>167.040836834804</v>
@@ -70332,7 +69666,7 @@
         <v>7</v>
       </c>
       <c r="C4045">
-        <v>0</v>
+        <v>185.81524821135</v>
       </c>
       <c r="D4045">
         <v>121.52495737656901</v>
@@ -70366,7 +69700,7 @@
         <v>6</v>
       </c>
       <c r="C4047">
-        <v>0</v>
+        <v>182.760323949233</v>
       </c>
       <c r="D4047">
         <v>168.191135172206</v>
@@ -70383,7 +69717,7 @@
         <v>7</v>
       </c>
       <c r="C4048">
-        <v>0</v>
+        <v>147.782690509052</v>
       </c>
       <c r="D4048">
         <v>119.896635691518</v>
@@ -70417,7 +69751,7 @@
         <v>6</v>
       </c>
       <c r="C4050">
-        <v>0</v>
+        <v>185.46507237356599</v>
       </c>
       <c r="D4050">
         <v>170.267420346042</v>
@@ -70434,7 +69768,7 @@
         <v>7</v>
       </c>
       <c r="C4051">
-        <v>0</v>
+        <v>119.492169457356</v>
       </c>
       <c r="D4051">
         <v>118.744279117896</v>
@@ -70468,7 +69802,7 @@
         <v>6</v>
       </c>
       <c r="C4053">
-        <v>0</v>
+        <v>188.31582947593699</v>
       </c>
       <c r="D4053">
         <v>173.532790511119</v>
@@ -70485,7 +69819,7 @@
         <v>7</v>
       </c>
       <c r="C4054">
-        <v>0</v>
+        <v>107.857667491466</v>
       </c>
       <c r="D4054">
         <v>118.994241101011</v>
@@ -70519,7 +69853,7 @@
         <v>6</v>
       </c>
       <c r="C4056">
-        <v>0</v>
+        <v>191.34719253522599</v>
       </c>
       <c r="D4056">
         <v>177.65610579737901</v>
@@ -70536,7 +69870,7 @@
         <v>7</v>
       </c>
       <c r="C4057">
-        <v>0</v>
+        <v>102.499057265476</v>
       </c>
       <c r="D4057">
         <v>120.32992722822</v>
@@ -70570,7 +69904,7 @@
         <v>6</v>
       </c>
       <c r="C4059">
-        <v>0</v>
+        <v>194.97850960243099</v>
       </c>
       <c r="D4059">
         <v>182.366546867583</v>
@@ -70587,7 +69921,7 @@
         <v>7</v>
       </c>
       <c r="C4060">
-        <v>0</v>
+        <v>99.7937959670938</v>
       </c>
       <c r="D4060">
         <v>120.244845506403</v>
@@ -70621,7 +69955,7 @@
         <v>6</v>
       </c>
       <c r="C4062">
-        <v>0</v>
+        <v>199.82028837505101</v>
       </c>
       <c r="D4062">
         <v>189.01052200369799</v>
@@ -70638,7 +69972,7 @@
         <v>7</v>
       </c>
       <c r="C4063">
-        <v>0</v>
+        <v>104.232418494152</v>
       </c>
       <c r="D4063">
         <v>118.005600610966</v>
@@ -70672,7 +70006,7 @@
         <v>6</v>
       </c>
       <c r="C4065">
-        <v>0</v>
+        <v>204.97729510152001</v>
       </c>
       <c r="D4065">
         <v>195.82215204375601</v>
@@ -70689,7 +70023,7 @@
         <v>7</v>
       </c>
       <c r="C4066">
-        <v>0</v>
+        <v>109.87154009803299</v>
       </c>
       <c r="D4066">
         <v>115.174135790595</v>
@@ -70723,7 +70057,7 @@
         <v>6</v>
       </c>
       <c r="C4068">
-        <v>0</v>
+        <v>210.467276205064</v>
       </c>
       <c r="D4068">
         <v>201.55495893683201</v>
@@ -70740,7 +70074,7 @@
         <v>7</v>
       </c>
       <c r="C4069">
-        <v>0</v>
+        <v>109.465272901939</v>
       </c>
       <c r="D4069">
         <v>111.59236588145799</v>
@@ -70774,7 +70108,7 @@
         <v>6</v>
       </c>
       <c r="C4071">
-        <v>0</v>
+        <v>216.44180591530599</v>
       </c>
       <c r="D4071">
         <v>207.33617934838199</v>
@@ -70791,7 +70125,7 @@
         <v>7</v>
       </c>
       <c r="C4072">
-        <v>0</v>
+        <v>108.423843767268</v>
       </c>
       <c r="D4072">
         <v>107.192906368922</v>
@@ -70825,7 +70159,7 @@
         <v>6</v>
       </c>
       <c r="C4074">
-        <v>0</v>
+        <v>221.26236181923599</v>
       </c>
       <c r="D4074">
         <v>211.787134849837</v>
@@ -70842,7 +70176,7 @@
         <v>7</v>
       </c>
       <c r="C4075">
-        <v>0</v>
+        <v>106.458002519348</v>
       </c>
       <c r="D4075">
         <v>103.048324093594</v>
@@ -70876,7 +70210,7 @@
         <v>6</v>
       </c>
       <c r="C4077">
-        <v>0</v>
+        <v>224.72717896222201</v>
       </c>
       <c r="D4077">
         <v>214.13281589541401</v>
@@ -70893,7 +70227,7 @@
         <v>7</v>
       </c>
       <c r="C4078">
-        <v>0</v>
+        <v>102.441769015148</v>
       </c>
       <c r="D4078">
         <v>99.184578000379105</v>
@@ -70927,7 +70261,7 @@
         <v>6</v>
       </c>
       <c r="C4080">
-        <v>0</v>
+        <v>227.51733179898801</v>
       </c>
       <c r="D4080">
         <v>215.221084469505</v>
@@ -70944,7 +70278,7 @@
         <v>7</v>
       </c>
       <c r="C4081">
-        <v>0</v>
+        <v>97.083227589665299</v>
       </c>
       <c r="D4081">
         <v>95.205354251258797</v>
@@ -70978,7 +70312,7 @@
         <v>6</v>
       </c>
       <c r="C4083">
-        <v>0</v>
+        <v>229.31855703056101</v>
       </c>
       <c r="D4083">
         <v>216.107569438806</v>
@@ -70995,7 +70329,7 @@
         <v>7</v>
       </c>
       <c r="C4084">
-        <v>0</v>
+        <v>92.844224785266803</v>
       </c>
       <c r="D4084">
         <v>91.549810512449497</v>
@@ -71029,7 +70363,7 @@
         <v>6</v>
       </c>
       <c r="C4086">
-        <v>0</v>
+        <v>229.146962376532</v>
       </c>
       <c r="D4086">
         <v>217.13544943361299</v>
@@ -71046,7 +70380,7 @@
         <v>7</v>
       </c>
       <c r="C4087">
-        <v>0</v>
+        <v>90.138092808590002</v>
       </c>
       <c r="D4087">
         <v>88.017105354004002</v>
@@ -71080,7 +70414,7 @@
         <v>6</v>
       </c>
       <c r="C4089">
-        <v>0</v>
+        <v>227.595246437886</v>
       </c>
       <c r="D4089">
         <v>217.811543273799</v>
@@ -71097,7 +70431,7 @@
         <v>7</v>
       </c>
       <c r="C4090">
-        <v>0</v>
+        <v>87.945584623123494</v>
       </c>
       <c r="D4090">
         <v>84.571881509854407</v>
@@ -71131,7 +70465,7 @@
         <v>6</v>
       </c>
       <c r="C4092">
-        <v>0</v>
+        <v>226.71403223773899</v>
       </c>
       <c r="D4092">
         <v>217.936940110433</v>
@@ -71148,7 +70482,7 @@
         <v>7</v>
       </c>
       <c r="C4093">
-        <v>0</v>
+        <v>86.579677906512302</v>
       </c>
       <c r="D4093">
         <v>81.901522892036795</v>
@@ -71182,7 +70516,7 @@
         <v>6</v>
       </c>
       <c r="C4095">
-        <v>0</v>
+        <v>226.63439759178999</v>
       </c>
       <c r="D4095">
         <v>217.52631100854401</v>
@@ -71199,7 +70533,7 @@
         <v>7</v>
       </c>
       <c r="C4096">
-        <v>0</v>
+        <v>86.747524930153304</v>
       </c>
       <c r="D4096">
         <v>79.788195861504704</v>
@@ -71233,7 +70567,7 @@
         <v>6</v>
       </c>
       <c r="C4098">
-        <v>0</v>
+        <v>226.791776071209</v>
       </c>
       <c r="D4098">
         <v>216.64357487849099</v>
@@ -71250,7 +70584,7 @@
         <v>7</v>
       </c>
       <c r="C4099">
-        <v>0</v>
+        <v>87.360181920305806</v>
       </c>
       <c r="D4099">
         <v>78.327394941586803</v>
@@ -71284,7 +70618,7 @@
         <v>6</v>
       </c>
       <c r="C4101">
-        <v>0</v>
+        <v>222.49440131487199</v>
       </c>
       <c r="D4101">
         <v>216.90411109870001</v>
@@ -71301,7 +70635,7 @@
         <v>7</v>
       </c>
       <c r="C4102">
-        <v>0</v>
+        <v>85.976498278001998</v>
       </c>
       <c r="D4102">
         <v>79.395011010995304</v>
@@ -71335,7 +70669,7 @@
         <v>6</v>
       </c>
       <c r="C4104">
-        <v>0</v>
+        <v>215.014482104623</v>
       </c>
       <c r="D4104">
         <v>217.75667469618099</v>
@@ -71352,7 +70686,7 @@
         <v>7</v>
       </c>
       <c r="C4105">
-        <v>0</v>
+        <v>83.834123236760604</v>
       </c>
       <c r="D4105">
         <v>82.116815832377597</v>
@@ -71386,7 +70720,7 @@
         <v>6</v>
       </c>
       <c r="C4107">
-        <v>0</v>
+        <v>214.30513781123699</v>
       </c>
       <c r="D4107">
         <v>215.82629006288099</v>
@@ -71403,7 +70737,7 @@
         <v>7</v>
       </c>
       <c r="C4108">
-        <v>0</v>
+        <v>84.070090155250398</v>
       </c>
       <c r="D4108">
         <v>83.525006887234397</v>
@@ -71437,7 +70771,7 @@
         <v>6</v>
       </c>
       <c r="C4110">
-        <v>0</v>
+        <v>210.47811282801501</v>
       </c>
       <c r="D4110">
         <v>213.570761905902</v>
@@ -71454,7 +70788,7 @@
         <v>7</v>
       </c>
       <c r="C4111">
-        <v>0</v>
+        <v>83.683923146277394</v>
       </c>
       <c r="D4111">
         <v>84.770754347619601</v>
@@ -71488,7 +70822,7 @@
         <v>6</v>
       </c>
       <c r="C4113">
-        <v>0</v>
+        <v>219.64202518494699</v>
       </c>
       <c r="D4113">
         <v>207.09528204192901</v>
@@ -71505,7 +70839,7 @@
         <v>7</v>
       </c>
       <c r="C4114">
-        <v>0</v>
+        <v>87.4710806879675</v>
       </c>
       <c r="D4114">
         <v>84.257670606348896</v>
@@ -71539,7 +70873,7 @@
         <v>6</v>
       </c>
       <c r="C4116">
-        <v>37.6297386452487</v>
+        <v>257.21218315184598</v>
       </c>
       <c r="D4116">
         <v>192.36890630675899</v>
@@ -71556,7 +70890,7 @@
         <v>7</v>
       </c>
       <c r="C4117">
-        <v>12.543246215082901</v>
+        <v>100.072796471628</v>
       </c>
       <c r="D4117">
         <v>79.793364179937001</v>
@@ -71590,7 +70924,7 @@
         <v>6</v>
       </c>
       <c r="C4119">
-        <v>108.81669543791701</v>
+        <v>308.62739355428101</v>
       </c>
       <c r="D4119">
         <v>173.23042349171001</v>
@@ -71607,7 +70941,7 @@
         <v>7</v>
       </c>
       <c r="C4120">
-        <v>36.272231812638999</v>
+        <v>117.090217193412</v>
       </c>
       <c r="D4120">
         <v>73.478238220468697</v>
@@ -71641,7 +70975,7 @@
         <v>6</v>
       </c>
       <c r="C4122">
-        <v>204.61440257383299</v>
+        <v>377.87133405168902</v>
       </c>
       <c r="D4122">
         <v>148.580538086389</v>
@@ -71658,7 +70992,7 @@
         <v>7</v>
       </c>
       <c r="C4123">
-        <v>68.204800857944207</v>
+        <v>139.794147267233</v>
       </c>
       <c r="D4123">
         <v>64.662345493943405</v>
@@ -71692,7 +71026,7 @@
         <v>6</v>
       </c>
       <c r="C4125">
-        <v>329.06845137168699</v>
+        <v>467.91996829057098</v>
       </c>
       <c r="D4125">
         <v>117.58550191684201</v>
@@ -71709,7 +71043,7 @@
         <v>7</v>
       </c>
       <c r="C4126">
-        <v>109.68948379056199</v>
+        <v>169.13048472636899</v>
       </c>
       <c r="D4126">
         <v>52.868258256168303</v>
@@ -71743,7 +71077,7 @@
         <v>6</v>
       </c>
       <c r="C4128">
-        <v>479.400898466532</v>
+        <v>576.74281057959899</v>
       </c>
       <c r="D4128">
         <v>80.798865087302403</v>
@@ -71760,7 +71094,7 @@
         <v>7</v>
       </c>
       <c r="C4129">
-        <v>159.80029948884399</v>
+        <v>204.45216107214199</v>
       </c>
       <c r="D4129">
         <v>38.426756506873502</v>
@@ -72406,7 +71740,7 @@
         <v>6</v>
       </c>
       <c r="C4167">
-        <v>3.3475161694861399</v>
+        <v>0</v>
       </c>
       <c r="D4167">
         <v>0</v>
@@ -72457,7 +71791,7 @@
         <v>6</v>
       </c>
       <c r="C4170">
-        <v>7.20801281525228</v>
+        <v>0</v>
       </c>
       <c r="D4170">
         <v>0</v>
@@ -72508,7 +71842,7 @@
         <v>6</v>
       </c>
       <c r="C4173">
-        <v>12.6559910105202</v>
+        <v>12.1439988910117</v>
       </c>
       <c r="D4173">
         <v>0</v>
@@ -72559,7 +71893,7 @@
         <v>6</v>
       </c>
       <c r="C4176">
-        <v>19.143723378340098</v>
+        <v>29.831518543123899</v>
       </c>
       <c r="D4176">
         <v>0</v>
@@ -72610,7 +71944,7 @@
         <v>6</v>
       </c>
       <c r="C4179">
-        <v>22.644794198993399</v>
+        <v>48.130269417187201</v>
       </c>
       <c r="D4179">
         <v>6.4025880834256599</v>
@@ -72661,7 +71995,7 @@
         <v>6</v>
       </c>
       <c r="C4182">
-        <v>21.4611515917248</v>
+        <v>70.499168869120496</v>
       </c>
       <c r="D4182">
         <v>24.035803884253301</v>
@@ -72678,7 +72012,7 @@
         <v>7</v>
       </c>
       <c r="C4183">
-        <v>18.629410947842398</v>
+        <v>17.843158479210199</v>
       </c>
       <c r="D4183">
         <v>14.149876732048099</v>
@@ -72712,7 +72046,7 @@
         <v>6</v>
       </c>
       <c r="C4185">
-        <v>17.9810692454475</v>
+        <v>96.728401004945894</v>
       </c>
       <c r="D4185">
         <v>47.525818069662897</v>
@@ -72729,7 +72063,7 @@
         <v>7</v>
       </c>
       <c r="C4186">
-        <v>36.855272545984903</v>
+        <v>34.784412302743803</v>
       </c>
       <c r="D4186">
         <v>31.08302454507</v>
@@ -72763,7 +72097,7 @@
         <v>6</v>
       </c>
       <c r="C4188">
-        <v>14.3076197949455</v>
+        <v>116.907784075406</v>
       </c>
       <c r="D4188">
         <v>68.144024397720599</v>
@@ -72780,7 +72114,7 @@
         <v>7</v>
       </c>
       <c r="C4189">
-        <v>50.707803592880097</v>
+        <v>48.465204715984001</v>
       </c>
       <c r="D4189">
         <v>51.964296526329903</v>
@@ -72814,7 +72148,7 @@
         <v>6</v>
       </c>
       <c r="C4191">
-        <v>7.4000314476382103</v>
+        <v>128.78684201791199</v>
       </c>
       <c r="D4191">
         <v>89.064015491828698</v>
@@ -72831,7 +72165,7 @@
         <v>7</v>
       </c>
       <c r="C4192">
-        <v>63.724143699157999</v>
+        <v>60.814310425623198</v>
       </c>
       <c r="D4192">
         <v>80.376316856454594</v>
@@ -72865,7 +72199,7 @@
         <v>6</v>
       </c>
       <c r="C4194">
-        <v>0.37131588613078498</v>
+        <v>137.103661925522</v>
       </c>
       <c r="D4194">
         <v>108.37767057914201</v>
@@ -72882,7 +72216,7 @@
         <v>7</v>
       </c>
       <c r="C4195">
-        <v>73.157469402121706</v>
+        <v>71.196244934697901</v>
       </c>
       <c r="D4195">
         <v>112.164092955858</v>
@@ -72916,7 +72250,7 @@
         <v>6</v>
       </c>
       <c r="C4197">
-        <v>0</v>
+        <v>138.80549593197699</v>
       </c>
       <c r="D4197">
         <v>117.52481922658301</v>
@@ -72933,7 +72267,7 @@
         <v>7</v>
       </c>
       <c r="C4198">
-        <v>68.394294102855497</v>
+        <v>72.772989287422405</v>
       </c>
       <c r="D4198">
         <v>147.88490251221</v>
@@ -72967,7 +72301,7 @@
         <v>6</v>
       </c>
       <c r="C4200">
-        <v>0</v>
+        <v>135.063245143411</v>
       </c>
       <c r="D4200">
         <v>121.752310814434</v>
@@ -72984,7 +72318,7 @@
         <v>7</v>
       </c>
       <c r="C4201">
-        <v>56.219310405744899</v>
+        <v>69.566781737558998</v>
       </c>
       <c r="D4201">
         <v>188.20226231396401</v>
@@ -73018,7 +72352,7 @@
         <v>6</v>
       </c>
       <c r="C4203">
-        <v>0</v>
+        <v>132.78504600263301</v>
       </c>
       <c r="D4203">
         <v>125.41949872643499</v>
@@ -73035,7 +72369,7 @@
         <v>7</v>
       </c>
       <c r="C4204">
-        <v>44.211166191562199</v>
+        <v>66.540167426689706</v>
       </c>
       <c r="D4204">
         <v>221.42870418532499</v>
@@ -73069,7 +72403,7 @@
         <v>6</v>
       </c>
       <c r="C4206">
-        <v>0</v>
+        <v>133.164106630736</v>
       </c>
       <c r="D4206">
         <v>128.58989928201299</v>
@@ -73086,7 +72420,7 @@
         <v>7</v>
       </c>
       <c r="C4207">
-        <v>30.845971650408998</v>
+        <v>63.200761436633002</v>
       </c>
       <c r="D4207">
         <v>248.02816295494199</v>
@@ -73120,7 +72454,7 @@
         <v>6</v>
       </c>
       <c r="C4209">
-        <v>0</v>
+        <v>133.442052328296</v>
       </c>
       <c r="D4209">
         <v>130.23325408547601</v>
@@ -73137,7 +72471,7 @@
         <v>7</v>
       </c>
       <c r="C4210">
-        <v>14.506349724993299</v>
+        <v>58.446401583539</v>
       </c>
       <c r="D4210">
         <v>271.97378484452997</v>
@@ -73171,7 +72505,7 @@
         <v>6</v>
       </c>
       <c r="C4212">
-        <v>0</v>
+        <v>134.59964530734501</v>
       </c>
       <c r="D4212">
         <v>133.06825444787799</v>
@@ -73188,7 +72522,7 @@
         <v>7</v>
       </c>
       <c r="C4213">
-        <v>2.6307174249965901</v>
+        <v>56.324967110486703</v>
       </c>
       <c r="D4213">
         <v>286.84191876789498</v>
@@ -73222,7 +72556,7 @@
         <v>6</v>
       </c>
       <c r="C4215">
-        <v>0</v>
+        <v>137.70727923023199</v>
       </c>
       <c r="D4215">
         <v>138.10709817819901</v>
@@ -73239,7 +72573,7 @@
         <v>7</v>
       </c>
       <c r="C4216">
-        <v>0</v>
+        <v>58.918804291777398</v>
       </c>
       <c r="D4216">
         <v>285.40164017419397</v>
@@ -73273,7 +72607,7 @@
         <v>6</v>
       </c>
       <c r="C4218">
-        <v>0</v>
+        <v>141.843480577441</v>
       </c>
       <c r="D4218">
         <v>143.73184202399401</v>
@@ -73290,7 +72624,7 @@
         <v>7</v>
       </c>
       <c r="C4219">
-        <v>0</v>
+        <v>63.773129679296403</v>
       </c>
       <c r="D4219">
         <v>273.08224226166101</v>
@@ -73324,7 +72658,7 @@
         <v>6</v>
       </c>
       <c r="C4221">
-        <v>0</v>
+        <v>145.00121078820001</v>
       </c>
       <c r="D4221">
         <v>148.71596570417699</v>
@@ -73341,7 +72675,7 @@
         <v>7</v>
       </c>
       <c r="C4222">
-        <v>0</v>
+        <v>68.130127932499306</v>
       </c>
       <c r="D4222">
         <v>262.45040056772501</v>
@@ -73375,7 +72709,7 @@
         <v>6</v>
       </c>
       <c r="C4224">
-        <v>0</v>
+        <v>147.279087179633</v>
       </c>
       <c r="D4224">
         <v>152.83806230103701</v>
@@ -73392,7 +72726,7 @@
         <v>7</v>
       </c>
       <c r="C4225">
-        <v>0</v>
+        <v>73.296181105186307</v>
       </c>
       <c r="D4225">
         <v>251.331337016297</v>
@@ -73426,7 +72760,7 @@
         <v>6</v>
       </c>
       <c r="C4227">
-        <v>0</v>
+        <v>148.885490085507</v>
       </c>
       <c r="D4227">
         <v>156.59602014951099</v>
@@ -73443,7 +72777,7 @@
         <v>7</v>
       </c>
       <c r="C4228">
-        <v>0</v>
+        <v>77.812737504026302</v>
       </c>
       <c r="D4228">
         <v>240.70994001251901</v>
@@ -73477,7 +72811,7 @@
         <v>6</v>
       </c>
       <c r="C4230">
-        <v>0</v>
+        <v>148.28884107469</v>
       </c>
       <c r="D4230">
         <v>159.994618883664</v>
@@ -73494,7 +72828,7 @@
         <v>7</v>
       </c>
       <c r="C4231">
-        <v>0</v>
+        <v>78.017470509698001</v>
       </c>
       <c r="D4231">
         <v>241.13149935139299</v>
@@ -73528,7 +72862,7 @@
         <v>6</v>
       </c>
       <c r="C4233">
-        <v>0</v>
+        <v>146.394463746269</v>
       </c>
       <c r="D4233">
         <v>163.01542287540801</v>
@@ -73545,7 +72879,7 @@
         <v>7</v>
       </c>
       <c r="C4234">
-        <v>0</v>
+        <v>76.552626433322999</v>
       </c>
       <c r="D4234">
         <v>245.83116092814799</v>
@@ -73579,7 +72913,7 @@
         <v>6</v>
       </c>
       <c r="C4236">
-        <v>0</v>
+        <v>145.01531710976201</v>
       </c>
       <c r="D4236">
         <v>165.476031829395</v>
@@ -73596,7 +72930,7 @@
         <v>7</v>
       </c>
       <c r="C4237">
-        <v>0</v>
+        <v>75.969848709323799</v>
       </c>
       <c r="D4237">
         <v>246.14988415239799</v>
@@ -73630,7 +72964,7 @@
         <v>6</v>
       </c>
       <c r="C4239">
-        <v>0</v>
+        <v>143.529091398812</v>
       </c>
       <c r="D4239">
         <v>167.44378087208099</v>
@@ -73647,7 +72981,7 @@
         <v>7</v>
       </c>
       <c r="C4240">
-        <v>0</v>
+        <v>74.789030203919197</v>
       </c>
       <c r="D4240">
         <v>241.308488207175</v>
@@ -73681,7 +73015,7 @@
         <v>6</v>
       </c>
       <c r="C4242">
-        <v>0</v>
+        <v>142.43502738703199</v>
       </c>
       <c r="D4242">
         <v>168.919207720522</v>
@@ -73698,7 +73032,7 @@
         <v>7</v>
       </c>
       <c r="C4243">
-        <v>0</v>
+        <v>74.219885959183301</v>
       </c>
       <c r="D4243">
         <v>234.00598707516099</v>
@@ -73732,7 +73066,7 @@
         <v>6</v>
       </c>
       <c r="C4245">
-        <v>0</v>
+        <v>143.47973824615801</v>
       </c>
       <c r="D4245">
         <v>169.42576051294699</v>
@@ -73749,7 +73083,7 @@
         <v>7</v>
       </c>
       <c r="C4246">
-        <v>0</v>
+        <v>78.465676457287998</v>
       </c>
       <c r="D4246">
         <v>216.70250871271901</v>
@@ -73783,7 +73117,7 @@
         <v>6</v>
       </c>
       <c r="C4248">
-        <v>0</v>
+        <v>145.454740588372</v>
       </c>
       <c r="D4248">
         <v>169.21003969577299</v>
@@ -73800,7 +73134,7 @@
         <v>7</v>
       </c>
       <c r="C4249">
-        <v>0</v>
+        <v>84.877623038639598</v>
       </c>
       <c r="D4249">
         <v>193.24414247008801</v>
@@ -73834,7 +73168,7 @@
         <v>6</v>
       </c>
       <c r="C4251">
-        <v>0</v>
+        <v>147.422674393807</v>
       </c>
       <c r="D4251">
         <v>169.07417732183899</v>
@@ -73851,7 +73185,7 @@
         <v>7</v>
       </c>
       <c r="C4252">
-        <v>0</v>
+        <v>89.764043688796207</v>
       </c>
       <c r="D4252">
         <v>177.26808204718199</v>
@@ -73885,7 +73219,7 @@
         <v>6</v>
       </c>
       <c r="C4254">
-        <v>0</v>
+        <v>149.80177254607301</v>
       </c>
       <c r="D4254">
         <v>168.63182448417101</v>
@@ -73902,7 +73236,7 @@
         <v>7</v>
       </c>
       <c r="C4255">
-        <v>0</v>
+        <v>94.157973380980295</v>
       </c>
       <c r="D4255">
         <v>169.56508433616699</v>
@@ -73936,7 +73270,7 @@
         <v>6</v>
       </c>
       <c r="C4257">
-        <v>0</v>
+        <v>152.316792207562</v>
       </c>
       <c r="D4257">
         <v>168.23427609872101</v>
@@ -73953,7 +73287,7 @@
         <v>7</v>
       </c>
       <c r="C4258">
-        <v>0</v>
+        <v>97.639600346340103</v>
       </c>
       <c r="D4258">
         <v>166.128759531399</v>
@@ -73987,7 +73321,7 @@
         <v>6</v>
       </c>
       <c r="C4260">
-        <v>0</v>
+        <v>154.04351969838001</v>
       </c>
       <c r="D4260">
         <v>168.91901727228301</v>
@@ -74004,7 +73338,7 @@
         <v>7</v>
       </c>
       <c r="C4261">
-        <v>0</v>
+        <v>95.620210566007401</v>
       </c>
       <c r="D4261">
         <v>177.27714651086501</v>
@@ -74038,7 +73372,7 @@
         <v>6</v>
       </c>
       <c r="C4263">
-        <v>0</v>
+        <v>155.57729144202401</v>
       </c>
       <c r="D4263">
         <v>170.01146156308801</v>
@@ -74055,7 +73389,7 @@
         <v>7</v>
       </c>
       <c r="C4264">
-        <v>0</v>
+        <v>90.594119280754498</v>
       </c>
       <c r="D4264">
         <v>197.752642572886</v>
@@ -74089,7 +73423,7 @@
         <v>6</v>
       </c>
       <c r="C4266">
-        <v>0</v>
+        <v>157.21985899189099</v>
       </c>
       <c r="D4266">
         <v>170.85209943552201</v>
@@ -74106,7 +73440,7 @@
         <v>7</v>
       </c>
       <c r="C4267">
-        <v>0</v>
+        <v>87.314918252489207</v>
       </c>
       <c r="D4267">
         <v>210.63325900116001</v>
@@ -74140,7 +73474,7 @@
         <v>6</v>
       </c>
       <c r="C4269">
-        <v>0</v>
+        <v>159.28525136064201</v>
       </c>
       <c r="D4269">
         <v>171.566045813241</v>
@@ -74157,7 +73491,7 @@
         <v>7</v>
       </c>
       <c r="C4270">
-        <v>0</v>
+        <v>82.939949665070998</v>
       </c>
       <c r="D4270">
         <v>211.22709182501401</v>
@@ -74191,7 +73525,7 @@
         <v>6</v>
       </c>
       <c r="C4272">
-        <v>0</v>
+        <v>161.50046601253899</v>
       </c>
       <c r="D4272">
         <v>172.29268081888799</v>
@@ -74208,7 +73542,7 @@
         <v>7</v>
       </c>
       <c r="C4273">
-        <v>0</v>
+        <v>77.721426035073804</v>
       </c>
       <c r="D4273">
         <v>207.51060127551301</v>
@@ -74242,7 +73576,7 @@
         <v>6</v>
       </c>
       <c r="C4275">
-        <v>0</v>
+        <v>163.28670717838401</v>
       </c>
       <c r="D4275">
         <v>172.39389271533</v>
@@ -74259,7 +73593,7 @@
         <v>7</v>
       </c>
       <c r="C4276">
-        <v>0</v>
+        <v>81.055244623476995</v>
       </c>
       <c r="D4276">
         <v>201.56434493895699</v>
@@ -74293,7 +73627,7 @@
         <v>6</v>
       </c>
       <c r="C4278">
-        <v>0</v>
+        <v>164.178470047465</v>
       </c>
       <c r="D4278">
         <v>171.39830359161601</v>
@@ -74310,7 +73644,7 @@
         <v>7</v>
       </c>
       <c r="C4279">
-        <v>0</v>
+        <v>100.328105932303</v>
       </c>
       <c r="D4279">
         <v>189.57543102848101</v>
@@ -74344,7 +73678,7 @@
         <v>6</v>
       </c>
       <c r="C4281">
-        <v>0</v>
+        <v>164.61952797396299</v>
       </c>
       <c r="D4281">
         <v>169.757193982319</v>
@@ -74361,7 +73695,7 @@
         <v>7</v>
       </c>
       <c r="C4282">
-        <v>0</v>
+        <v>128.702355633319</v>
       </c>
       <c r="D4282">
         <v>172.57902758971301</v>
@@ -74395,7 +73729,7 @@
         <v>6</v>
       </c>
       <c r="C4284">
-        <v>0</v>
+        <v>165.39500243601799</v>
       </c>
       <c r="D4284">
         <v>168.21643981858901</v>
@@ -74412,7 +73746,7 @@
         <v>7</v>
       </c>
       <c r="C4285">
-        <v>0</v>
+        <v>154.23735874212699</v>
       </c>
       <c r="D4285">
         <v>159.92778195769401</v>
@@ -74446,7 +73780,7 @@
         <v>6</v>
       </c>
       <c r="C4287">
-        <v>0</v>
+        <v>165.924559378293</v>
       </c>
       <c r="D4287">
         <v>166.26887455310799</v>
@@ -74463,7 +73797,7 @@
         <v>7</v>
       </c>
       <c r="C4288">
-        <v>0</v>
+        <v>188.54921457766</v>
       </c>
       <c r="D4288">
         <v>156.933777731112</v>
@@ -74497,7 +73831,7 @@
         <v>6</v>
       </c>
       <c r="C4290">
-        <v>0</v>
+        <v>166.74748055659299</v>
       </c>
       <c r="D4290">
         <v>164.45014337008101</v>
@@ -74514,7 +73848,7 @@
         <v>7</v>
       </c>
       <c r="C4291">
-        <v>0</v>
+        <v>217.79402383592699</v>
       </c>
       <c r="D4291">
         <v>155.40097141269499</v>
@@ -74548,7 +73882,7 @@
         <v>6</v>
       </c>
       <c r="C4293">
-        <v>0</v>
+        <v>169.05572355201701</v>
       </c>
       <c r="D4293">
         <v>163.36050872943801</v>
@@ -74565,7 +73899,7 @@
         <v>7</v>
       </c>
       <c r="C4294">
-        <v>0</v>
+        <v>221.39877419728001</v>
       </c>
       <c r="D4294">
         <v>152.51786049417399</v>
@@ -74599,7 +73933,7 @@
         <v>6</v>
       </c>
       <c r="C4296">
-        <v>0</v>
+        <v>172.06627068417501</v>
       </c>
       <c r="D4296">
         <v>162.47759267373499</v>
@@ -74616,7 +73950,7 @@
         <v>7</v>
       </c>
       <c r="C4297">
-        <v>0</v>
+        <v>214.96520839065201</v>
       </c>
       <c r="D4297">
         <v>150.841835495862</v>
@@ -74650,7 +73984,7 @@
         <v>6</v>
       </c>
       <c r="C4299">
-        <v>0</v>
+        <v>175.28120425569799</v>
       </c>
       <c r="D4299">
         <v>162.42752810534199</v>
@@ -74667,7 +74001,7 @@
         <v>7</v>
       </c>
       <c r="C4300">
-        <v>0</v>
+        <v>202.62482607012299</v>
       </c>
       <c r="D4300">
         <v>147.51669265173399</v>
@@ -74701,7 +74035,7 @@
         <v>6</v>
       </c>
       <c r="C4302">
-        <v>0</v>
+        <v>178.774890249301</v>
       </c>
       <c r="D4302">
         <v>163.13785971944401</v>
@@ -74718,7 +74052,7 @@
         <v>7</v>
       </c>
       <c r="C4303">
-        <v>0</v>
+        <v>175.15159278234401</v>
       </c>
       <c r="D4303">
         <v>140.21322479123901</v>
@@ -74752,7 +74086,7 @@
         <v>6</v>
       </c>
       <c r="C4305">
-        <v>0</v>
+        <v>182.67361854755001</v>
       </c>
       <c r="D4305">
         <v>164.443375565059</v>
@@ -74769,7 +74103,7 @@
         <v>7</v>
       </c>
       <c r="C4306">
-        <v>0</v>
+        <v>135.342959025825</v>
       </c>
       <c r="D4306">
         <v>131.046898410284</v>
@@ -74803,7 +74137,7 @@
         <v>6</v>
       </c>
       <c r="C4308">
-        <v>0</v>
+        <v>186.55735730284499</v>
       </c>
       <c r="D4308">
         <v>166.83107357531401</v>
@@ -74820,7 +74154,7 @@
         <v>7</v>
       </c>
       <c r="C4309">
-        <v>0</v>
+        <v>105.365651882433</v>
       </c>
       <c r="D4309">
         <v>123.828520242537</v>
@@ -74854,7 +74188,7 @@
         <v>6</v>
       </c>
       <c r="C4311">
-        <v>0</v>
+        <v>190.12391909378999</v>
       </c>
       <c r="D4311">
         <v>170.731551818604</v>
@@ -74871,7 +74205,7 @@
         <v>7</v>
       </c>
       <c r="C4312">
-        <v>0</v>
+        <v>91.707078618785999</v>
       </c>
       <c r="D4312">
         <v>120.264692849212</v>
@@ -74905,7 +74239,7 @@
         <v>6</v>
       </c>
       <c r="C4314">
-        <v>0</v>
+        <v>193.66272088223499</v>
       </c>
       <c r="D4314">
         <v>175.787960224096</v>
@@ -74922,7 +74256,7 @@
         <v>7</v>
       </c>
       <c r="C4315">
-        <v>0</v>
+        <v>84.390855982231301</v>
       </c>
       <c r="D4315">
         <v>118.30063633733999</v>
@@ -74956,7 +74290,7 @@
         <v>6</v>
       </c>
       <c r="C4317">
-        <v>0</v>
+        <v>197.641137395448</v>
       </c>
       <c r="D4317">
         <v>181.306124516068</v>
@@ -74973,7 +74307,7 @@
         <v>7</v>
       </c>
       <c r="C4318">
-        <v>0</v>
+        <v>80.888025275733895</v>
       </c>
       <c r="D4318">
         <v>116.10508375931499</v>
@@ -75007,7 +74341,7 @@
         <v>6</v>
       </c>
       <c r="C4320">
-        <v>0</v>
+        <v>202.93852262878301</v>
       </c>
       <c r="D4320">
         <v>188.45966153133401</v>
@@ -75024,7 +74358,7 @@
         <v>7</v>
       </c>
       <c r="C4321">
-        <v>0</v>
+        <v>85.527392020471595</v>
       </c>
       <c r="D4321">
         <v>113.952080758679</v>
@@ -75058,7 +74392,7 @@
         <v>6</v>
       </c>
       <c r="C4323">
-        <v>0</v>
+        <v>208.304621545331</v>
       </c>
       <c r="D4323">
         <v>195.76304513089701</v>
@@ -75075,7 +74409,7 @@
         <v>7</v>
       </c>
       <c r="C4324">
-        <v>0</v>
+        <v>92.203759030489095</v>
       </c>
       <c r="D4324">
         <v>111.862150154345</v>
@@ -75109,7 +74443,7 @@
         <v>6</v>
       </c>
       <c r="C4326">
-        <v>0</v>
+        <v>213.24886935846001</v>
       </c>
       <c r="D4326">
         <v>201.96665259996701</v>
@@ -75126,7 +74460,7 @@
         <v>7</v>
       </c>
       <c r="C4327">
-        <v>0</v>
+        <v>95.556379980517605</v>
       </c>
       <c r="D4327">
         <v>108.57029389616299</v>
@@ -75160,7 +74494,7 @@
         <v>6</v>
       </c>
       <c r="C4329">
-        <v>0</v>
+        <v>218.27012419758199</v>
       </c>
       <c r="D4329">
         <v>208.144761766991</v>
@@ -75177,7 +74511,7 @@
         <v>7</v>
       </c>
       <c r="C4330">
-        <v>0</v>
+        <v>99.979345562888099</v>
       </c>
       <c r="D4330">
         <v>104.817491826313</v>
@@ -75211,7 +74545,7 @@
         <v>6</v>
       </c>
       <c r="C4332">
-        <v>0</v>
+        <v>222.12548161564101</v>
       </c>
       <c r="D4332">
         <v>213.10033470739901</v>
@@ -75228,7 +74562,7 @@
         <v>7</v>
       </c>
       <c r="C4333">
-        <v>0</v>
+        <v>101.924948546265</v>
       </c>
       <c r="D4333">
         <v>101.40115959873199</v>
@@ -75262,7 +74596,7 @@
         <v>6</v>
       </c>
       <c r="C4335">
-        <v>0</v>
+        <v>224.16771536037601</v>
       </c>
       <c r="D4335">
         <v>215.98900194995801</v>
@@ -75279,7 +74613,7 @@
         <v>7</v>
       </c>
       <c r="C4336">
-        <v>0</v>
+        <v>99.304061504182897</v>
       </c>
       <c r="D4336">
         <v>98.454729700344004</v>
@@ -75313,7 +74647,7 @@
         <v>6</v>
       </c>
       <c r="C4338">
-        <v>0</v>
+        <v>225.17124949151</v>
       </c>
       <c r="D4338">
         <v>217.66581032088001</v>
@@ -75330,7 +74664,7 @@
         <v>7</v>
       </c>
       <c r="C4339">
-        <v>0</v>
+        <v>94.332574371954493</v>
       </c>
       <c r="D4339">
         <v>95.670155263847406</v>
@@ -75364,7 +74698,7 @@
         <v>6</v>
       </c>
       <c r="C4341">
-        <v>0</v>
+        <v>226.025655029962</v>
       </c>
       <c r="D4341">
         <v>219.48284634175801</v>
@@ -75381,7 +74715,7 @@
         <v>7</v>
       </c>
       <c r="C4342">
-        <v>0</v>
+        <v>89.920305960907697</v>
       </c>
       <c r="D4342">
         <v>93.182632911846397</v>
@@ -75415,7 +74749,7 @@
         <v>6</v>
       </c>
       <c r="C4344">
-        <v>0</v>
+        <v>226.268305834301</v>
       </c>
       <c r="D4344">
         <v>222.07820157551399</v>
@@ -75432,7 +74766,7 @@
         <v>7</v>
       </c>
       <c r="C4345">
-        <v>0</v>
+        <v>85.202781211432296</v>
       </c>
       <c r="D4345">
         <v>91.280975434728802</v>
@@ -75466,7 +74800,7 @@
         <v>6</v>
       </c>
       <c r="C4347">
-        <v>0</v>
+        <v>225.823276452187</v>
       </c>
       <c r="D4347">
         <v>224.68935821145101</v>
@@ -75483,7 +74817,7 @@
         <v>7</v>
       </c>
       <c r="C4348">
-        <v>0</v>
+        <v>79.722831195459193</v>
       </c>
       <c r="D4348">
         <v>89.723642633771803</v>
@@ -75517,7 +74851,7 @@
         <v>6</v>
       </c>
       <c r="C4350">
-        <v>0</v>
+        <v>226.16018893818</v>
       </c>
       <c r="D4350">
         <v>226.56748871072801</v>
@@ -75534,7 +74868,7 @@
         <v>7</v>
       </c>
       <c r="C4351">
-        <v>0</v>
+        <v>77.001233921628398</v>
       </c>
       <c r="D4351">
         <v>87.850301647913994</v>
@@ -75568,7 +74902,7 @@
         <v>6</v>
       </c>
       <c r="C4353">
-        <v>0</v>
+        <v>227.92645010958199</v>
       </c>
       <c r="D4353">
         <v>228.37750363909899</v>
@@ -75585,7 +74919,7 @@
         <v>7</v>
       </c>
       <c r="C4354">
-        <v>0</v>
+        <v>79.965499043691594</v>
       </c>
       <c r="D4354">
         <v>85.218798965708999</v>
@@ -75619,7 +74953,7 @@
         <v>6</v>
       </c>
       <c r="C4356">
-        <v>0</v>
+        <v>230.01146952430599</v>
       </c>
       <c r="D4356">
         <v>229.42967768241499</v>
@@ -75636,7 +74970,7 @@
         <v>7</v>
       </c>
       <c r="C4357">
-        <v>0</v>
+        <v>83.989458632046393</v>
       </c>
       <c r="D4357">
         <v>82.588729426446605</v>
@@ -75670,7 +75004,7 @@
         <v>6</v>
       </c>
       <c r="C4359">
-        <v>0</v>
+        <v>227.13353860284801</v>
       </c>
       <c r="D4359">
         <v>230.42521709679099</v>
@@ -75687,7 +75021,7 @@
         <v>7</v>
       </c>
       <c r="C4360">
-        <v>0</v>
+        <v>85.263618856520495</v>
       </c>
       <c r="D4360">
         <v>80.601940660883997</v>
@@ -75721,7 +75055,7 @@
         <v>6</v>
       </c>
       <c r="C4362">
-        <v>0</v>
+        <v>221.029229541608</v>
       </c>
       <c r="D4362">
         <v>231.51274699188201</v>
@@ -75738,7 +75072,7 @@
         <v>7</v>
       </c>
       <c r="C4363">
-        <v>0</v>
+        <v>86.245810707484594</v>
       </c>
       <c r="D4363">
         <v>79.076072435131294</v>
@@ -75772,7 +75106,7 @@
         <v>6</v>
       </c>
       <c r="C4365">
-        <v>0</v>
+        <v>221.058589669924</v>
       </c>
       <c r="D4365">
         <v>229.08261428930601</v>
@@ -75789,7 +75123,7 @@
         <v>7</v>
       </c>
       <c r="C4366">
-        <v>0</v>
+        <v>88.527283049362396</v>
       </c>
       <c r="D4366">
         <v>77.917102617259999</v>
@@ -75823,7 +75157,7 @@
         <v>6</v>
       </c>
       <c r="C4368">
-        <v>0</v>
+        <v>217.20070829380401</v>
       </c>
       <c r="D4368">
         <v>225.289785405174</v>
@@ -75840,7 +75174,7 @@
         <v>7</v>
       </c>
       <c r="C4369">
-        <v>0</v>
+        <v>88.648979910227396</v>
       </c>
       <c r="D4369">
         <v>78.715473103629407</v>
@@ -75874,7 +75208,7 @@
         <v>6</v>
       </c>
       <c r="C4371">
-        <v>0</v>
+        <v>225.891660872784</v>
       </c>
       <c r="D4371">
         <v>216.783326429071</v>
@@ -75891,7 +75225,7 @@
         <v>7</v>
       </c>
       <c r="C4372">
-        <v>0</v>
+        <v>92.461684167470594</v>
       </c>
       <c r="D4372">
         <v>78.531886054782206</v>
@@ -75925,7 +75259,7 @@
         <v>6</v>
       </c>
       <c r="C4374">
-        <v>37.6297386452487</v>
+        <v>262.59178383774099</v>
       </c>
       <c r="D4374">
         <v>199.84899808208399</v>
@@ -75942,7 +75276,7 @@
         <v>7</v>
       </c>
       <c r="C4375">
-        <v>12.543246215082901</v>
+        <v>104.790188874916</v>
       </c>
       <c r="D4375">
         <v>75.170534744848794</v>
@@ -75976,7 +75310,7 @@
         <v>6</v>
       </c>
       <c r="C4377">
-        <v>108.81669543791701</v>
+        <v>312.70954660142002</v>
       </c>
       <c r="D4377">
         <v>178.02179019811999</v>
@@ -75993,7 +75327,7 @@
         <v>7</v>
       </c>
       <c r="C4378">
-        <v>36.272231812638999</v>
+        <v>121.018027665952</v>
       </c>
       <c r="D4378">
         <v>70.706050406421198</v>
@@ -76027,7 +75361,7 @@
         <v>6</v>
       </c>
       <c r="C4380">
-        <v>204.61440257383299</v>
+        <v>380.21267519624098</v>
       </c>
       <c r="D4380">
         <v>150.30704287824099</v>
@@ -76044,7 +75378,7 @@
         <v>7</v>
       </c>
       <c r="C4381">
-        <v>68.204800857944207</v>
+        <v>142.539318548328</v>
       </c>
       <c r="D4381">
         <v>64.655458241539606</v>
@@ -76078,7 +75412,7 @@
         <v>6</v>
       </c>
       <c r="C4383">
-        <v>329.06845137168699</v>
+        <v>468.06140729652998</v>
       </c>
       <c r="D4383">
         <v>115.947101169319</v>
@@ -76095,7 +75429,7 @@
         <v>7</v>
       </c>
       <c r="C4384">
-        <v>109.68948379056199</v>
+        <v>170.424075919502</v>
       </c>
       <c r="D4384">
         <v>56.632519624876302</v>
@@ -76129,7 +75463,7 @@
         <v>6</v>
       </c>
       <c r="C4386">
-        <v>479.400898466532</v>
+        <v>574.23100415957003</v>
       </c>
       <c r="D4386">
         <v>75.442362322601696</v>
@@ -76146,7 +75480,7 @@
         <v>7</v>
       </c>
       <c r="C4387">
-        <v>159.80029948884399</v>
+        <v>203.97735078506</v>
       </c>
       <c r="D4387">
         <v>46.875597085169602</v>

--- a/zzz_lib/code and data/data/Excel/need_provision_data.xlsx
+++ b/zzz_lib/code and data/data/Excel/need_provision_data.xlsx
@@ -1,26 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eaf80618f9c5e5a/Work Items/TheCareBoard/zzz_lib/code and data/data/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE599A8F-59D6-49CC-83CA-10D0400D33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{BE599A8F-59D6-49CC-83CA-10D0400D33B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4C15E01-9A65-4F23-A74C-14C0DAB39F2E}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="45" windowWidth="21600" windowHeight="11295" xr2:uid="{6D1BAE02-DBAD-417A-B427-DA4AE4DF96C1}"/>
+    <workbookView xWindow="-28920" yWindow="-2370" windowWidth="29040" windowHeight="15720" xr2:uid="{6D1BAE02-DBAD-417A-B427-DA4AE4DF96C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="need_provision_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Information" sheetId="2" r:id="rId1"/>
+    <sheet name="need_provision_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4470" uniqueCount="86">
   <si>
     <t>age</t>
   </si>
@@ -45,12 +68,307 @@
   <si>
     <t>health</t>
   </si>
+  <si>
+    <t>Laying in bed attempting to sleep</t>
+  </si>
+  <si>
+    <t>Napping</t>
+  </si>
+  <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
+    <t>Religious Observation</t>
+  </si>
+  <si>
+    <t>Exercising</t>
+  </si>
+  <si>
+    <t>Eating/Drinking</t>
+  </si>
+  <si>
+    <t>Using/Waiting on Paid Personalcare Services (i.e., barbers)</t>
+  </si>
+  <si>
+    <t>Using/Waiting on Paid Healthcare Services (i.e., doctors)</t>
+  </si>
+  <si>
+    <t>Private Care Activities</t>
+  </si>
+  <si>
+    <t>Self Healthcare</t>
+  </si>
+  <si>
+    <t>Grooming</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Watching Sports</t>
+  </si>
+  <si>
+    <t>Group sports</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Attending entertainment venues</t>
+  </si>
+  <si>
+    <t>Reading/writing for fun</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Computer Use for Leisure</t>
+  </si>
+  <si>
+    <t>Playing Games</t>
+  </si>
+  <si>
+    <t>Listening to Radio</t>
+  </si>
+  <si>
+    <t>Television/Movies</t>
+  </si>
+  <si>
+    <t>Attending parties</t>
+  </si>
+  <si>
+    <t>Socializing with others</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Education administrative activities (i.e., paying dues/signing up for classes)</t>
+  </si>
+  <si>
+    <t>Homework/at home training</t>
+  </si>
+  <si>
+    <t>School related club activities</t>
+  </si>
+  <si>
+    <t>Taking Classes</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Interacting with paid housework services (i.e., paid lawncare/cleaners)</t>
+  </si>
+  <si>
+    <t>Grocery Shopping</t>
+  </si>
+  <si>
+    <t>Organizing Household Finances</t>
+  </si>
+  <si>
+    <t>Cleaning/Feeding pets</t>
+  </si>
+  <si>
+    <t>Lawn Maintenance</t>
+  </si>
+  <si>
+    <t>Food/Drink Preparation</t>
+  </si>
+  <si>
+    <t>Item Repair (i.e. furniture/clothing)</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Laundry</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Housework</t>
+  </si>
+  <si>
+    <t>Helping Elder generally</t>
+  </si>
+  <si>
+    <t>Assisting Elder with Housework (Any items in Housework Category)</t>
+  </si>
+  <si>
+    <t>Providing Medical Care for Elder</t>
+  </si>
+  <si>
+    <t>Looking After Elder</t>
+  </si>
+  <si>
+    <t>Physical Care for Elder</t>
+  </si>
+  <si>
+    <t>Elder Care</t>
+  </si>
+  <si>
+    <t>Organization and planning for children</t>
+  </si>
+  <si>
+    <t>Attending Children's Events (i.e., sports)</t>
+  </si>
+  <si>
+    <t>Interacting with paid childcare (i.e., talking to daycare/teachers)</t>
+  </si>
+  <si>
+    <t>Providing Medical Care</t>
+  </si>
+  <si>
+    <t>Picking up/ Dropping off</t>
+  </si>
+  <si>
+    <t>Helping with Homework</t>
+  </si>
+  <si>
+    <t>Talking to Children</t>
+  </si>
+  <si>
+    <t>Playing with Children</t>
+  </si>
+  <si>
+    <t>Reading to Children</t>
+  </si>
+  <si>
+    <t>Physical Care for children</t>
+  </si>
+  <si>
+    <t>Child Care</t>
+  </si>
+  <si>
+    <t>Income generating activities outside work</t>
+  </si>
+  <si>
+    <t>Traveling for work</t>
+  </si>
+  <si>
+    <t>Taking breaks at work</t>
+  </si>
+  <si>
+    <t>Formal Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid Work </t>
+  </si>
+  <si>
+    <t>For each of the categories we group ATUS activity codes into one of the main catagories. The activities in this column are common examples of activities that would be coded as one of the catagories, but this column is not inclusive of all activities. ATUS has over 450 total unique activities which we codeded into broader catagories based on time use themes such as "child care".</t>
+  </si>
+  <si>
+    <t>EXAMPLES OF INCLUDED ACTIVITIES</t>
+  </si>
+  <si>
+    <t>Mean minutes per day and median minutes per day are computed using only responses from sandwich caregivers as we defined. However, the calculation for mean and median time per day for each activity includes all sandwich caregivers, even if they did not report time spent in that activity on their diary day.</t>
+  </si>
+  <si>
+    <t>Statistical Note</t>
+  </si>
+  <si>
+    <r>
+      <t>The 2020 ATUS was greatly affected by the COVID-19 pandemic. Data collection was suspended for a portion of 2020. The BLS advises that "Annual 2020 estimates cannot be produced due to the 2-month suspension in data collection." For our analysis, we include an observation for the year 2020 that includes the 4 years prior to it. However, we exclude 2020 from 5 year aggregates for the future years, meaning  the rolling average for 2023 includes 2023, 2022, 2021, 2019, and 2018. 2020 is excluded in the 5-year rolling averages for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2021, 2022, and 2023.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please refrain from making any interpretations about a "COVID" effect from this data, unless it is a comparison of the years 2021 and after to the years 2019 and prior. For more information, see https://www.bls.gov/tus/tables.htm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Note on 2020 ATUS </t>
+  </si>
+  <si>
+    <t>Rolling-Yearly-Averages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All observations are in minutes. A full 24 hours of the day denotes 1440 minutes. Due to the inclusion of "Secondary Caregiving" where a person might be engaged in one task (i.e., cooking) while simultaneously engaged in another task (i.e., caring for a child), the total number of minutes often adds up to over 24 hours in a day, representing a high strain on the time demands of caregivers. There is quite literally not enough time in the day to meet their needs, requiring multi-tasking. </t>
+  </si>
+  <si>
+    <t>Time Frame</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <r>
+      <t> Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Care Board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, University of Kansas, using microdata from the American Time Use Survey (ATUS) curated by ipums.org. For more details, visit thecareboard.ku.edu.</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimating Care Recipt and Giving: An Analysis using the American Time Use Survey, 2007-2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Years 2007-2023 utilizes five-year rolling averages. This method pools data from the current year (e.g., 2015) with the four preceding years (e.g., 2014, 2013, 2012, 2011) to provide a more stable view of trends over time. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given our dataset begins in 2003 when the ATUS survey begins, years 2003, 2004, 2005, and 2006 do not have full 5-year rolling averages.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This approach helps us navigate the challenges of smaller year-on-year sample sizes characteristic of the ATUS, especially when examining specific groups such as sandwich caregivers by gender. Utilization of 5 year rolling averages has become standard practice to help alleviate these concerns in the data. However, it does mean that the results are less resistant to sudden shocks.</t>
+    </r>
+  </si>
+  <si>
+    <t>Measuring Care Recipt</t>
+  </si>
+  <si>
+    <t>The ATUS survey directly measures caregiving, but does not necessarily measure care receipt. To measure how much care a person of a given age receives alone, we filter the data to look only at individuals living alone who provide zero total minutes of childcare and eldercare. We additionally only look at care activities in which they do their activities alone for these individuals, any time spent caregiving involves them as the sole recipient. We also assume that they are not receiving much care from other individuals. Thus, all time spent caregiving for this group represents time spent caring for oneself. This assumption allows us to use caregiving data to understand care recipt.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +501,72 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -367,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -482,8 +866,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -526,11 +947,56 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -568,6 +1034,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{3D03C8A3-4C1B-482F-A328-859AD2065DB4}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -585,6 +1052,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,10 +1434,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EFB1D7-0C8F-455D-98D6-E616FC41A585}">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="95.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="126" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA4993A-4D39-40BE-9127-687E8D1CC91E}">
   <dimension ref="A1:E4387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="R185" sqref="O166:R185"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
